--- a/SSilva.xlsx
+++ b/SSilva.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\AnaliseDebitos\Comerciais\Comercias_streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7915CA6-509F-41AE-8F31-FBA7A14F6548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D256D42-6CE7-4479-8CCD-F95FC8A1D235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AA7A1B68-3D27-4A36-AC51-C616EE73859E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="74">
   <si>
     <t>Tipo Conta</t>
   </si>
@@ -170,9 +170,6 @@
     <t>Sinal Mágico - Supermercados,Lda</t>
   </si>
   <si>
-    <t>Nbc-Supermercado Unipessoal,Lda</t>
-  </si>
-  <si>
     <t>Forno Mágico-Rest.E Panif., Lda</t>
   </si>
   <si>
@@ -189,9 +186,6 @@
   </si>
   <si>
     <t>Talho Macano Unipessoal, Lda</t>
-  </si>
-  <si>
-    <t>Paulo Soares &amp; Silvia Nunes, Lda</t>
   </si>
   <si>
     <t>José Pereira &amp; Cunha, Lda</t>
@@ -230,9 +224,6 @@
     <t>Cativar Tendências, Lda</t>
   </si>
   <si>
-    <t>Jacinto Ferreira Carvalho</t>
-  </si>
-  <si>
     <t>Vasconcelos &amp; Vaz, Lda.</t>
   </si>
   <si>
@@ -248,9 +239,6 @@
     <t>Comifrio-Produtos Pré-Cozinhados,Sa</t>
   </si>
   <si>
-    <t>Henrique Sérgio Lopes Martins Gomes</t>
-  </si>
-  <si>
     <t>Nelson Pereira &amp; Filha, Lda</t>
   </si>
   <si>
@@ -260,7 +248,16 @@
     <t>Frutado Citadino unipessoal, lda.</t>
   </si>
   <si>
-    <t>Hélder Agostinho Castro Unipessoal, Lda.</t>
+    <t>91A120</t>
+  </si>
+  <si>
+    <t>Talhadas Perfeitas, Lda</t>
+  </si>
+  <si>
+    <t>Casa Do Coucieiro Enchidos</t>
+  </si>
+  <si>
+    <t>Época Emergente, Lda</t>
   </si>
 </sst>
 </file>
@@ -638,7 +635,7 @@
   <dimension ref="A1:M225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M225"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,7 +712,7 @@
         <v>45936.41783564815</v>
       </c>
       <c r="I2" s="2">
-        <v>-12</v>
+        <v>-2</v>
       </c>
       <c r="J2" s="3">
         <v>35.24</v>
@@ -756,7 +753,7 @@
         <v>45936.680358796293</v>
       </c>
       <c r="I3" s="2">
-        <v>-12</v>
+        <v>-2</v>
       </c>
       <c r="J3" s="3">
         <v>140.56</v>
@@ -797,7 +794,7 @@
         <v>45954.362280092588</v>
       </c>
       <c r="I4" s="2">
-        <v>-37</v>
+        <v>-27</v>
       </c>
       <c r="J4" s="3">
         <v>54.64</v>
@@ -814,10 +811,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>211110285</v>
+        <v>211110024</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -826,25 +823,25 @@
         <v>17</v>
       </c>
       <c r="E5">
-        <v>14125</v>
+        <v>14442</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="1">
-        <v>45977.634733796294</v>
+        <v>45991</v>
       </c>
       <c r="H5" s="1">
-        <v>45947.63517361111</v>
+        <v>45959.374525462961</v>
       </c>
       <c r="I5" s="2">
-        <v>-23</v>
+        <v>-27</v>
       </c>
       <c r="J5" s="3">
-        <v>252.99</v>
+        <v>244.43</v>
       </c>
       <c r="K5" s="3">
-        <v>252.99</v>
+        <v>244.43</v>
       </c>
       <c r="L5" t="s">
         <v>15</v>
@@ -855,10 +852,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>211110364</v>
+        <v>211110024</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -867,31 +864,31 @@
         <v>17</v>
       </c>
       <c r="E6">
-        <v>11358</v>
+        <v>14541</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="1">
-        <v>45900.567037037035</v>
+        <v>45991</v>
       </c>
       <c r="H6" s="1">
-        <v>45870.567037037035</v>
+        <v>45961.386006944442</v>
       </c>
       <c r="I6" s="2">
-        <v>54</v>
+        <v>-27</v>
       </c>
       <c r="J6" s="3">
-        <v>476.82</v>
+        <v>138.13</v>
       </c>
       <c r="K6" s="3">
-        <v>476.82</v>
+        <v>138.13</v>
       </c>
       <c r="L6" t="s">
         <v>15</v>
       </c>
       <c r="M6" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -908,31 +905,31 @@
         <v>17</v>
       </c>
       <c r="E7">
-        <v>11399</v>
+        <v>11358</v>
       </c>
       <c r="F7" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="1">
-        <v>45903.547291666662</v>
+        <v>45900.567037037035</v>
       </c>
       <c r="H7" s="1">
-        <v>45873.547291666662</v>
+        <v>45870.567037037035</v>
       </c>
       <c r="I7" s="2">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="J7" s="3">
-        <v>356.84000000000003</v>
+        <v>476.82</v>
       </c>
       <c r="K7" s="3">
-        <v>356.84000000000003</v>
+        <v>476.82</v>
       </c>
       <c r="L7" t="s">
         <v>15</v>
       </c>
       <c r="M7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -949,31 +946,31 @@
         <v>17</v>
       </c>
       <c r="E8">
-        <v>11541</v>
+        <v>11399</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="1">
-        <v>45905.539664351847</v>
+        <v>45903.547291666662</v>
       </c>
       <c r="H8" s="1">
-        <v>45875.539675925924</v>
+        <v>45873.547291666662</v>
       </c>
       <c r="I8" s="2">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="J8" s="3">
-        <v>489.72</v>
+        <v>356.84000000000003</v>
       </c>
       <c r="K8" s="3">
-        <v>489.72</v>
+        <v>356.84000000000003</v>
       </c>
       <c r="L8" t="s">
         <v>15</v>
       </c>
       <c r="M8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -990,25 +987,25 @@
         <v>17</v>
       </c>
       <c r="E9">
-        <v>11636</v>
+        <v>11541</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="1">
-        <v>45907.577685185184</v>
+        <v>45905.539664351847</v>
       </c>
       <c r="H9" s="1">
-        <v>45877.577685185184</v>
+        <v>45875.539675925924</v>
       </c>
       <c r="I9" s="2">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="J9" s="3">
-        <v>265.88</v>
+        <v>489.72</v>
       </c>
       <c r="K9" s="3">
-        <v>265.88</v>
+        <v>489.72</v>
       </c>
       <c r="L9" t="s">
         <v>15</v>
@@ -1031,25 +1028,25 @@
         <v>17</v>
       </c>
       <c r="E10">
-        <v>11707</v>
+        <v>11636</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="1">
-        <v>45910.500196759254</v>
+        <v>45907.577685185184</v>
       </c>
       <c r="H10" s="1">
-        <v>45880.500196759254</v>
+        <v>45877.577685185184</v>
       </c>
       <c r="I10" s="2">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="J10" s="3">
-        <v>556.11</v>
+        <v>265.88</v>
       </c>
       <c r="K10" s="3">
-        <v>556.11</v>
+        <v>265.88</v>
       </c>
       <c r="L10" t="s">
         <v>15</v>
@@ -1072,25 +1069,25 @@
         <v>17</v>
       </c>
       <c r="E11">
-        <v>11842</v>
+        <v>11707</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
       </c>
       <c r="G11" s="1">
-        <v>45912.519386574073</v>
+        <v>45910.500196759254</v>
       </c>
       <c r="H11" s="1">
-        <v>45882.51939814815</v>
+        <v>45880.500196759254</v>
       </c>
       <c r="I11" s="2">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="J11" s="3">
-        <v>806.80000000000007</v>
+        <v>556.11</v>
       </c>
       <c r="K11" s="3">
-        <v>806.80000000000007</v>
+        <v>556.11</v>
       </c>
       <c r="L11" t="s">
         <v>15</v>
@@ -1113,25 +1110,25 @@
         <v>17</v>
       </c>
       <c r="E12">
-        <v>11973</v>
+        <v>11842</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="1">
-        <v>45917.598541666666</v>
+        <v>45912.519386574073</v>
       </c>
       <c r="H12" s="1">
-        <v>45887.599583333329</v>
+        <v>45882.51939814815</v>
       </c>
       <c r="I12" s="2">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="J12" s="3">
-        <v>625.95000000000005</v>
+        <v>806.80000000000007</v>
       </c>
       <c r="K12" s="3">
-        <v>625.95000000000005</v>
+        <v>806.80000000000007</v>
       </c>
       <c r="L12" t="s">
         <v>15</v>
@@ -1154,25 +1151,25 @@
         <v>17</v>
       </c>
       <c r="E13">
-        <v>12091</v>
+        <v>11973</v>
       </c>
       <c r="F13" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="1">
-        <v>45919.599074074074</v>
+        <v>45917.598541666666</v>
       </c>
       <c r="H13" s="1">
-        <v>45889.599085648144</v>
+        <v>45887.599583333329</v>
       </c>
       <c r="I13" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="J13" s="3">
-        <v>578.58000000000004</v>
+        <v>625.95000000000005</v>
       </c>
       <c r="K13" s="3">
-        <v>578.58000000000004</v>
+        <v>625.95000000000005</v>
       </c>
       <c r="L13" t="s">
         <v>15</v>
@@ -1195,25 +1192,25 @@
         <v>17</v>
       </c>
       <c r="E14">
-        <v>12203</v>
+        <v>12091</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
       </c>
       <c r="G14" s="1">
-        <v>45921.449143518519</v>
+        <v>45919.599074074074</v>
       </c>
       <c r="H14" s="1">
-        <v>45891.449155092589</v>
+        <v>45889.599085648144</v>
       </c>
       <c r="I14" s="2">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="J14" s="3">
-        <v>474.01</v>
+        <v>578.58000000000004</v>
       </c>
       <c r="K14" s="3">
-        <v>474.01</v>
+        <v>578.58000000000004</v>
       </c>
       <c r="L14" t="s">
         <v>15</v>
@@ -1236,31 +1233,31 @@
         <v>17</v>
       </c>
       <c r="E15">
-        <v>12242</v>
+        <v>12203</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="1">
-        <v>45924.556018518517</v>
+        <v>45921.449143518519</v>
       </c>
       <c r="H15" s="1">
-        <v>45894.556030092594</v>
+        <v>45891.449155092589</v>
       </c>
       <c r="I15" s="2">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="J15" s="3">
-        <v>479.96000000000004</v>
+        <v>474.01</v>
       </c>
       <c r="K15" s="3">
-        <v>479.96000000000004</v>
+        <v>474.01</v>
       </c>
       <c r="L15" t="s">
         <v>15</v>
       </c>
       <c r="M15" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1277,31 +1274,31 @@
         <v>17</v>
       </c>
       <c r="E16">
-        <v>12335</v>
+        <v>12242</v>
       </c>
       <c r="F16" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="1">
-        <v>45926.416400462964</v>
+        <v>45924.556018518517</v>
       </c>
       <c r="H16" s="1">
-        <v>45896.416400462964</v>
+        <v>45894.556030092594</v>
       </c>
       <c r="I16" s="2">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="J16" s="3">
-        <v>611.29</v>
+        <v>479.96000000000004</v>
       </c>
       <c r="K16" s="3">
-        <v>611.29</v>
+        <v>479.96000000000004</v>
       </c>
       <c r="L16" t="s">
         <v>15</v>
       </c>
       <c r="M16" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1318,31 +1315,31 @@
         <v>17</v>
       </c>
       <c r="E17">
-        <v>12409</v>
+        <v>12335</v>
       </c>
       <c r="F17" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="1">
-        <v>45928.370115740741</v>
+        <v>45926.416400462964</v>
       </c>
       <c r="H17" s="1">
-        <v>45898.370127314811</v>
+        <v>45896.416400462964</v>
       </c>
       <c r="I17" s="2">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="J17" s="3">
-        <v>980.96</v>
+        <v>611.29</v>
       </c>
       <c r="K17" s="3">
-        <v>980.96</v>
+        <v>611.29</v>
       </c>
       <c r="L17" t="s">
         <v>15</v>
       </c>
       <c r="M17" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1359,31 +1356,31 @@
         <v>17</v>
       </c>
       <c r="E18">
-        <v>12541</v>
+        <v>12409</v>
       </c>
       <c r="F18" t="s">
         <v>14</v>
       </c>
       <c r="G18" s="1">
-        <v>45933.419363425921</v>
+        <v>45928.370115740741</v>
       </c>
       <c r="H18" s="1">
-        <v>45903.419363425921</v>
+        <v>45898.370127314811</v>
       </c>
       <c r="I18" s="2">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="J18" s="3">
-        <v>127.61</v>
+        <v>980.96</v>
       </c>
       <c r="K18" s="3">
-        <v>127.61</v>
+        <v>980.96</v>
       </c>
       <c r="L18" t="s">
         <v>15</v>
       </c>
       <c r="M18" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1400,31 +1397,31 @@
         <v>17</v>
       </c>
       <c r="E19">
-        <v>12687</v>
+        <v>12541</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="1">
-        <v>45938.445277777777</v>
+        <v>45933.419363425921</v>
       </c>
       <c r="H19" s="1">
-        <v>45908.445277777777</v>
+        <v>45903.419363425921</v>
       </c>
       <c r="I19" s="2">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="J19" s="3">
-        <v>83.3</v>
+        <v>127.61</v>
       </c>
       <c r="K19" s="3">
-        <v>83.3</v>
+        <v>127.61</v>
       </c>
       <c r="L19" t="s">
         <v>15</v>
       </c>
       <c r="M19" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1435,37 +1432,37 @@
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20">
-        <v>2025</v>
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
       </c>
       <c r="E20">
-        <v>857</v>
+        <v>12687</v>
       </c>
       <c r="F20" t="s">
         <v>14</v>
       </c>
       <c r="G20" s="1">
-        <v>45940</v>
+        <v>45938.445277777777</v>
       </c>
       <c r="H20" s="1">
-        <v>45910</v>
+        <v>45908.445277777777</v>
       </c>
       <c r="I20" s="2">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J20" s="3">
-        <v>-20.010000000000002</v>
+        <v>83.3</v>
       </c>
       <c r="K20" s="3">
-        <v>-20.010000000000002</v>
+        <v>83.3</v>
       </c>
       <c r="L20" t="s">
         <v>15</v>
       </c>
       <c r="M20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1476,45 +1473,45 @@
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="D21">
+        <v>2025</v>
       </c>
       <c r="E21">
-        <v>12775</v>
+        <v>857</v>
       </c>
       <c r="F21" t="s">
         <v>14</v>
       </c>
       <c r="G21" s="1">
-        <v>45940.437488425923</v>
+        <v>45940</v>
       </c>
       <c r="H21" s="1">
-        <v>45910.437835648147</v>
+        <v>45910</v>
       </c>
       <c r="I21" s="2">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="J21" s="3">
-        <v>159.21</v>
+        <v>-20.010000000000002</v>
       </c>
       <c r="K21" s="3">
-        <v>159.21</v>
+        <v>-20.010000000000002</v>
       </c>
       <c r="L21" t="s">
         <v>15</v>
       </c>
       <c r="M21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>211110571</v>
+        <v>211110364</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
         <v>16</v>
@@ -1523,31 +1520,31 @@
         <v>17</v>
       </c>
       <c r="E22">
-        <v>13664</v>
+        <v>12775</v>
       </c>
       <c r="F22" t="s">
         <v>14</v>
       </c>
       <c r="G22" s="1">
-        <v>45957.36347222222</v>
+        <v>45940.437488425923</v>
       </c>
       <c r="H22" s="1">
-        <v>45936.364050925928</v>
+        <v>45910.437835648147</v>
       </c>
       <c r="I22" s="2">
-        <v>-3</v>
+        <v>24</v>
       </c>
       <c r="J22" s="3">
-        <v>324.95</v>
+        <v>159.21</v>
       </c>
       <c r="K22" s="3">
-        <v>324.95</v>
+        <v>159.21</v>
       </c>
       <c r="L22" t="s">
         <v>15</v>
       </c>
       <c r="M22" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1576,7 +1573,7 @@
         <v>45947.369085648148</v>
       </c>
       <c r="I23" s="2">
-        <v>-23</v>
+        <v>-13</v>
       </c>
       <c r="J23" s="3">
         <v>214.92000000000002</v>
@@ -1617,7 +1614,7 @@
         <v>45954.348981481482</v>
       </c>
       <c r="I24" s="2">
-        <v>-30</v>
+        <v>-20</v>
       </c>
       <c r="J24" s="3">
         <v>12.620000000000001</v>
@@ -1658,7 +1655,7 @@
         <v>45954.354629629626</v>
       </c>
       <c r="I25" s="2">
-        <v>-30</v>
+        <v>-20</v>
       </c>
       <c r="J25" s="3">
         <v>55.550000000000004</v>
@@ -1699,7 +1696,7 @@
         <v>45838.521597222221</v>
       </c>
       <c r="I26" s="2">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="J26" s="3">
         <v>90.210000000000008</v>
@@ -1711,7 +1708,7 @@
         <v>15</v>
       </c>
       <c r="M26" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1740,7 +1737,7 @@
         <v>45842.371018518519</v>
       </c>
       <c r="I27" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="J27" s="3">
         <v>117.93</v>
@@ -1752,7 +1749,7 @@
         <v>15</v>
       </c>
       <c r="M27" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1781,7 +1778,7 @@
         <v>45838.444780092592</v>
       </c>
       <c r="I28" s="2">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="J28" s="3">
         <v>358.77</v>
@@ -1793,7 +1790,7 @@
         <v>15</v>
       </c>
       <c r="M28" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -1822,7 +1819,7 @@
         <v>45910</v>
       </c>
       <c r="I29" s="2">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="J29" s="3">
         <v>-12.84</v>
@@ -1834,7 +1831,7 @@
         <v>15</v>
       </c>
       <c r="M29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -1863,7 +1860,7 @@
         <v>45910.435416666667</v>
       </c>
       <c r="I30" s="2">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="J30" s="3">
         <v>128.36000000000001</v>
@@ -1875,7 +1872,7 @@
         <v>15</v>
       </c>
       <c r="M30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -1904,7 +1901,7 @@
         <v>45915.396956018514</v>
       </c>
       <c r="I31" s="2">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J31" s="3">
         <v>22.37</v>
@@ -1916,7 +1913,7 @@
         <v>15</v>
       </c>
       <c r="M31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -1945,7 +1942,7 @@
         <v>45917.441192129627</v>
       </c>
       <c r="I32" s="2">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J32" s="3">
         <v>318.68</v>
@@ -1957,7 +1954,7 @@
         <v>15</v>
       </c>
       <c r="M32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -1986,7 +1983,7 @@
         <v>45919.351805555554</v>
       </c>
       <c r="I33" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J33" s="3">
         <v>89.460000000000008</v>
@@ -1998,7 +1995,7 @@
         <v>15</v>
       </c>
       <c r="M33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2027,7 +2024,7 @@
         <v>45687.395555555551</v>
       </c>
       <c r="I34" s="2">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="J34" s="3">
         <v>451.6</v>
@@ -2068,7 +2065,7 @@
         <v>45694.424895833334</v>
       </c>
       <c r="I35" s="2">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="J35" s="3">
         <v>304.07</v>
@@ -2109,7 +2106,7 @@
         <v>45708.407013888886</v>
       </c>
       <c r="I36" s="2">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="J36" s="3">
         <v>250.1</v>
@@ -2150,7 +2147,7 @@
         <v>45736.386284722219</v>
       </c>
       <c r="I37" s="2">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="J37" s="3">
         <v>357.07</v>
@@ -2191,7 +2188,7 @@
         <v>45743.438298611109</v>
       </c>
       <c r="I38" s="2">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="J38" s="3">
         <v>281.37</v>
@@ -2232,7 +2229,7 @@
         <v>45750.406990740739</v>
       </c>
       <c r="I39" s="2">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="J39" s="3">
         <v>326.22000000000003</v>
@@ -2273,7 +2270,7 @@
         <v>45938.413819444446</v>
       </c>
       <c r="I40" s="2">
-        <v>-14</v>
+        <v>-4</v>
       </c>
       <c r="J40" s="3">
         <v>30.22</v>
@@ -2314,7 +2311,7 @@
         <v>45938.418530092589</v>
       </c>
       <c r="I41" s="2">
-        <v>-14</v>
+        <v>-4</v>
       </c>
       <c r="J41" s="3">
         <v>25.46</v>
@@ -2355,7 +2352,7 @@
         <v>45954.364305555551</v>
       </c>
       <c r="I42" s="2">
-        <v>-30</v>
+        <v>-20</v>
       </c>
       <c r="J42" s="3">
         <v>120.02</v>
@@ -2372,43 +2369,43 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>211111024</v>
+        <v>211111002</v>
       </c>
       <c r="B43" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43">
-        <v>2025</v>
+        <v>16</v>
+      </c>
+      <c r="D43" t="s">
+        <v>17</v>
       </c>
       <c r="E43">
-        <v>34</v>
+        <v>14443</v>
       </c>
       <c r="F43" t="s">
         <v>14</v>
       </c>
       <c r="G43" s="1">
-        <v>45727</v>
+        <v>45989.374618055554</v>
       </c>
       <c r="H43" s="1">
-        <v>45667</v>
+        <v>45959.375023148146</v>
       </c>
       <c r="I43" s="2">
-        <v>227</v>
+        <v>-25</v>
       </c>
       <c r="J43" s="3">
-        <v>-135.83000000000001</v>
+        <v>115.93</v>
       </c>
       <c r="K43" s="3">
-        <v>-0.83000000000000007</v>
+        <v>115.93</v>
       </c>
       <c r="L43" t="s">
         <v>15</v>
       </c>
       <c r="M43" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -2425,31 +2422,31 @@
         <v>2025</v>
       </c>
       <c r="E44">
-        <v>694</v>
+        <v>34</v>
       </c>
       <c r="F44" t="s">
         <v>14</v>
       </c>
       <c r="G44" s="1">
-        <v>45923</v>
+        <v>45727</v>
       </c>
       <c r="H44" s="1">
-        <v>45863</v>
+        <v>45667</v>
       </c>
       <c r="I44" s="2">
-        <v>31</v>
+        <v>237</v>
       </c>
       <c r="J44" s="3">
-        <v>-54.4</v>
+        <v>-135.83000000000001</v>
       </c>
       <c r="K44" s="3">
-        <v>-54.4</v>
+        <v>-0.83000000000000007</v>
       </c>
       <c r="L44" t="s">
         <v>15</v>
       </c>
       <c r="M44" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -2466,31 +2463,31 @@
         <v>2025</v>
       </c>
       <c r="E45">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="F45" t="s">
         <v>14</v>
       </c>
       <c r="G45" s="1">
-        <v>45927</v>
+        <v>45923</v>
       </c>
       <c r="H45" s="1">
-        <v>45867</v>
+        <v>45863</v>
       </c>
       <c r="I45" s="2">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="J45" s="3">
-        <v>-57.95</v>
+        <v>-54.4</v>
       </c>
       <c r="K45" s="3">
-        <v>-57.95</v>
+        <v>-54.4</v>
       </c>
       <c r="L45" t="s">
         <v>15</v>
       </c>
       <c r="M45" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
@@ -2501,37 +2498,37 @@
         <v>22</v>
       </c>
       <c r="C46" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D46">
         <v>2025</v>
       </c>
       <c r="E46">
-        <v>135</v>
+        <v>704</v>
       </c>
       <c r="F46" t="s">
         <v>14</v>
       </c>
       <c r="G46" s="1">
-        <v>45955</v>
+        <v>45927</v>
       </c>
       <c r="H46" s="1">
-        <v>45895</v>
+        <v>45867</v>
       </c>
       <c r="I46" s="2">
-        <v>-1</v>
+        <v>37</v>
       </c>
       <c r="J46" s="3">
-        <v>878.80000000000007</v>
+        <v>-57.95</v>
       </c>
       <c r="K46" s="3">
-        <v>878.80000000000007</v>
+        <v>-57.95</v>
       </c>
       <c r="L46" t="s">
         <v>15</v>
       </c>
       <c r="M46" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -2548,25 +2545,25 @@
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F47" t="s">
         <v>14</v>
       </c>
       <c r="G47" s="1">
-        <v>45955</v>
+        <v>45971</v>
       </c>
       <c r="H47" s="1">
-        <v>45895</v>
+        <v>45909</v>
       </c>
       <c r="I47" s="2">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="J47" s="3">
-        <v>2373.67</v>
+        <v>683.46</v>
       </c>
       <c r="K47" s="3">
-        <v>2373.67</v>
+        <v>683.46</v>
       </c>
       <c r="L47" t="s">
         <v>15</v>
@@ -2589,25 +2586,25 @@
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F48" t="s">
         <v>14</v>
       </c>
       <c r="G48" s="1">
-        <v>45963</v>
+        <v>45979</v>
       </c>
       <c r="H48" s="1">
-        <v>45901</v>
+        <v>45918</v>
       </c>
       <c r="I48" s="2">
-        <v>-9</v>
+        <v>-15</v>
       </c>
       <c r="J48" s="3">
-        <v>1623.08</v>
+        <v>568.94000000000005</v>
       </c>
       <c r="K48" s="3">
-        <v>1623.08</v>
+        <v>568.94000000000005</v>
       </c>
       <c r="L48" t="s">
         <v>15</v>
@@ -2630,25 +2627,25 @@
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="F49" t="s">
         <v>14</v>
       </c>
       <c r="G49" s="1">
-        <v>45971</v>
+        <v>45981</v>
       </c>
       <c r="H49" s="1">
-        <v>45909</v>
+        <v>45958</v>
       </c>
       <c r="I49" s="2">
         <v>-17</v>
       </c>
       <c r="J49" s="3">
-        <v>683.46</v>
+        <v>544.70000000000005</v>
       </c>
       <c r="K49" s="3">
-        <v>683.46</v>
+        <v>544.70000000000005</v>
       </c>
       <c r="L49" t="s">
         <v>15</v>
@@ -2671,25 +2668,25 @@
         <v>2025</v>
       </c>
       <c r="E50">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F50" t="s">
         <v>14</v>
       </c>
       <c r="G50" s="1">
-        <v>45979</v>
+        <v>45984</v>
       </c>
       <c r="H50" s="1">
-        <v>45918</v>
+        <v>45925</v>
       </c>
       <c r="I50" s="2">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="J50" s="3">
-        <v>568.94000000000005</v>
+        <v>706.35</v>
       </c>
       <c r="K50" s="3">
-        <v>568.94000000000005</v>
+        <v>706.35</v>
       </c>
       <c r="L50" t="s">
         <v>15</v>
@@ -2712,25 +2709,25 @@
         <v>2025</v>
       </c>
       <c r="E51">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F51" t="s">
         <v>14</v>
       </c>
       <c r="G51" s="1">
-        <v>45984</v>
+        <v>45991</v>
       </c>
       <c r="H51" s="1">
-        <v>45925</v>
+        <v>45930</v>
       </c>
       <c r="I51" s="2">
-        <v>-30</v>
+        <v>-27</v>
       </c>
       <c r="J51" s="3">
-        <v>706.35</v>
+        <v>540.47</v>
       </c>
       <c r="K51" s="3">
-        <v>706.35</v>
+        <v>540.47</v>
       </c>
       <c r="L51" t="s">
         <v>15</v>
@@ -2747,31 +2744,31 @@
         <v>22</v>
       </c>
       <c r="C52" t="s">
-        <v>37</v>
-      </c>
-      <c r="D52">
-        <v>2025</v>
+        <v>16</v>
+      </c>
+      <c r="D52" t="s">
+        <v>17</v>
       </c>
       <c r="E52">
-        <v>148</v>
+        <v>14415</v>
       </c>
       <c r="F52" t="s">
         <v>14</v>
       </c>
       <c r="G52" s="1">
-        <v>45991</v>
+        <v>46018.430162037032</v>
       </c>
       <c r="H52" s="1">
-        <v>45930</v>
+        <v>45958.430509259255</v>
       </c>
       <c r="I52" s="2">
-        <v>-37</v>
+        <v>-54</v>
       </c>
       <c r="J52" s="3">
-        <v>540.47</v>
+        <v>167.12</v>
       </c>
       <c r="K52" s="3">
-        <v>540.47</v>
+        <v>167.12</v>
       </c>
       <c r="L52" t="s">
         <v>15</v>
@@ -2782,37 +2779,37 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>211111024</v>
+        <v>211111053</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53">
-        <v>2025</v>
+        <v>16</v>
+      </c>
+      <c r="D53" t="s">
+        <v>17</v>
       </c>
       <c r="E53">
-        <v>941</v>
+        <v>14382</v>
       </c>
       <c r="F53" t="s">
         <v>14</v>
       </c>
       <c r="G53" s="1">
-        <v>46004</v>
+        <v>45988.352060185185</v>
       </c>
       <c r="H53" s="1">
-        <v>45944</v>
+        <v>45958.352291666662</v>
       </c>
       <c r="I53" s="2">
-        <v>-50</v>
+        <v>-24</v>
       </c>
       <c r="J53" s="3">
-        <v>-35.090000000000003</v>
+        <v>62.96</v>
       </c>
       <c r="K53" s="3">
-        <v>-35.090000000000003</v>
+        <v>62.96</v>
       </c>
       <c r="L53" t="s">
         <v>15</v>
@@ -2823,10 +2820,10 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>211111024</v>
+        <v>211111053</v>
       </c>
       <c r="B54" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="C54" t="s">
         <v>16</v>
@@ -2835,25 +2832,25 @@
         <v>17</v>
       </c>
       <c r="E54">
-        <v>13982</v>
+        <v>14529</v>
       </c>
       <c r="F54" t="s">
         <v>14</v>
       </c>
       <c r="G54" s="1">
-        <v>46004.393680555557</v>
+        <v>45991.36519675926</v>
       </c>
       <c r="H54" s="1">
-        <v>45944.394803240742</v>
+        <v>45961.367106481477</v>
       </c>
       <c r="I54" s="2">
-        <v>-50</v>
+        <v>-27</v>
       </c>
       <c r="J54" s="3">
-        <v>257.64999999999998</v>
+        <v>213.23000000000002</v>
       </c>
       <c r="K54" s="3">
-        <v>257.64999999999998</v>
+        <v>213.23000000000002</v>
       </c>
       <c r="L54" t="s">
         <v>15</v>
@@ -2864,10 +2861,10 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>211111024</v>
+        <v>211111189</v>
       </c>
       <c r="B55" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="C55" t="s">
         <v>16</v>
@@ -2876,39 +2873,39 @@
         <v>17</v>
       </c>
       <c r="E55">
-        <v>14318</v>
+        <v>12908</v>
       </c>
       <c r="F55" t="s">
         <v>14</v>
       </c>
       <c r="G55" s="1">
-        <v>46014.354791666665</v>
+        <v>45957.454733796294</v>
       </c>
       <c r="H55" s="1">
-        <v>45954.355439814812</v>
+        <v>45912.455081018517</v>
       </c>
       <c r="I55" s="2">
-        <v>-60</v>
+        <v>7</v>
       </c>
       <c r="J55" s="3">
-        <v>260.91000000000003</v>
+        <v>4230.29</v>
       </c>
       <c r="K55" s="3">
-        <v>260.91000000000003</v>
+        <v>4230.29</v>
       </c>
       <c r="L55" t="s">
         <v>15</v>
       </c>
       <c r="M55" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>211111024</v>
+        <v>211111189</v>
       </c>
       <c r="B56" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="C56" t="s">
         <v>16</v>
@@ -2917,39 +2914,39 @@
         <v>17</v>
       </c>
       <c r="E56">
-        <v>14330</v>
+        <v>12986</v>
       </c>
       <c r="F56" t="s">
         <v>14</v>
       </c>
       <c r="G56" s="1">
-        <v>46014.367164351846</v>
+        <v>45961.430729166663</v>
       </c>
       <c r="H56" s="1">
-        <v>45954.367696759255</v>
+        <v>45916.430729166663</v>
       </c>
       <c r="I56" s="2">
-        <v>-60</v>
+        <v>3</v>
       </c>
       <c r="J56" s="3">
-        <v>61.230000000000004</v>
+        <v>593.39</v>
       </c>
       <c r="K56" s="3">
-        <v>61.230000000000004</v>
+        <v>593.39</v>
       </c>
       <c r="L56" t="s">
         <v>15</v>
       </c>
       <c r="M56" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>211111053</v>
+        <v>211111189</v>
       </c>
       <c r="B57" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C57" t="s">
         <v>16</v>
@@ -2958,25 +2955,25 @@
         <v>17</v>
       </c>
       <c r="E57">
-        <v>14329</v>
+        <v>13545</v>
       </c>
       <c r="F57" t="s">
         <v>14</v>
       </c>
       <c r="G57" s="1">
-        <v>45984.366678240738</v>
+        <v>45976.39739583333</v>
       </c>
       <c r="H57" s="1">
-        <v>45954.366944444446</v>
+        <v>45931.397905092592</v>
       </c>
       <c r="I57" s="2">
-        <v>-30</v>
+        <v>-12</v>
       </c>
       <c r="J57" s="3">
-        <v>64.510000000000005</v>
+        <v>601.51</v>
       </c>
       <c r="K57" s="3">
-        <v>64.510000000000005</v>
+        <v>601.51</v>
       </c>
       <c r="L57" t="s">
         <v>15</v>
@@ -2990,34 +2987,34 @@
         <v>211111189</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D58" t="s">
         <v>17</v>
       </c>
       <c r="E58">
-        <v>12908</v>
+        <v>606</v>
       </c>
       <c r="F58" t="s">
         <v>14</v>
       </c>
       <c r="G58" s="1">
-        <v>45957.454733796294</v>
+        <v>46000</v>
       </c>
       <c r="H58" s="1">
-        <v>45912.455081018517</v>
+        <v>45940</v>
       </c>
       <c r="I58" s="2">
-        <v>-3</v>
+        <v>-36</v>
       </c>
       <c r="J58" s="3">
-        <v>4230.29</v>
+        <v>-3.12</v>
       </c>
       <c r="K58" s="3">
-        <v>4230.29</v>
+        <v>-3.12</v>
       </c>
       <c r="L58" t="s">
         <v>15</v>
@@ -3031,34 +3028,34 @@
         <v>211111189</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>16</v>
-      </c>
-      <c r="D59" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="D59">
+        <v>2025</v>
       </c>
       <c r="E59">
-        <v>12986</v>
+        <v>927</v>
       </c>
       <c r="F59" t="s">
         <v>14</v>
       </c>
       <c r="G59" s="1">
-        <v>45961.430729166663</v>
+        <v>46000</v>
       </c>
       <c r="H59" s="1">
-        <v>45916.430729166663</v>
+        <v>45940</v>
       </c>
       <c r="I59" s="2">
-        <v>-7</v>
+        <v>-36</v>
       </c>
       <c r="J59" s="3">
-        <v>593.39</v>
+        <v>-23.04</v>
       </c>
       <c r="K59" s="3">
-        <v>593.39</v>
+        <v>-23.04</v>
       </c>
       <c r="L59" t="s">
         <v>15</v>
@@ -3072,7 +3069,7 @@
         <v>211111189</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C60" t="s">
         <v>16</v>
@@ -3081,25 +3078,25 @@
         <v>17</v>
       </c>
       <c r="E60">
-        <v>13545</v>
+        <v>13904</v>
       </c>
       <c r="F60" t="s">
         <v>14</v>
       </c>
       <c r="G60" s="1">
-        <v>45976.39739583333</v>
+        <v>46000.42664351852</v>
       </c>
       <c r="H60" s="1">
-        <v>45931.397905092592</v>
+        <v>45940.427731481483</v>
       </c>
       <c r="I60" s="2">
-        <v>-22</v>
+        <v>-36</v>
       </c>
       <c r="J60" s="3">
-        <v>601.51</v>
+        <v>1958.57</v>
       </c>
       <c r="K60" s="3">
-        <v>601.51</v>
+        <v>1958.57</v>
       </c>
       <c r="L60" t="s">
         <v>15</v>
@@ -3113,34 +3110,34 @@
         <v>211111189</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D61" t="s">
         <v>17</v>
       </c>
       <c r="E61">
-        <v>606</v>
+        <v>14306</v>
       </c>
       <c r="F61" t="s">
         <v>14</v>
       </c>
       <c r="G61" s="1">
-        <v>46000</v>
+        <v>46014.315925925926</v>
       </c>
       <c r="H61" s="1">
-        <v>45940</v>
+        <v>45954.316296296296</v>
       </c>
       <c r="I61" s="2">
-        <v>-46</v>
+        <v>-50</v>
       </c>
       <c r="J61" s="3">
-        <v>-3.12</v>
+        <v>2645.84</v>
       </c>
       <c r="K61" s="3">
-        <v>-3.12</v>
+        <v>2645.84</v>
       </c>
       <c r="L61" t="s">
         <v>15</v>
@@ -3151,37 +3148,37 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>211111189</v>
+        <v>211111204</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C62" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62">
-        <v>2025</v>
+        <v>16</v>
+      </c>
+      <c r="D62" t="s">
+        <v>17</v>
       </c>
       <c r="E62">
-        <v>927</v>
+        <v>13728</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G62" s="1">
-        <v>46000</v>
+        <v>45967.38108796296</v>
       </c>
       <c r="H62" s="1">
-        <v>45940</v>
+        <v>45937.381805555553</v>
       </c>
       <c r="I62" s="2">
-        <v>-46</v>
+        <v>-3</v>
       </c>
       <c r="J62" s="3">
-        <v>-23.04</v>
+        <v>157.85</v>
       </c>
       <c r="K62" s="3">
-        <v>-23.04</v>
+        <v>157.85</v>
       </c>
       <c r="L62" t="s">
         <v>15</v>
@@ -3192,10 +3189,10 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>211111189</v>
+        <v>211111204</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C63" t="s">
         <v>16</v>
@@ -3204,25 +3201,25 @@
         <v>17</v>
       </c>
       <c r="E63">
-        <v>13904</v>
+        <v>13902</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G63" s="1">
-        <v>46000.42664351852</v>
+        <v>45969</v>
       </c>
       <c r="H63" s="1">
-        <v>45940.427731481483</v>
+        <v>45940.424398148149</v>
       </c>
       <c r="I63" s="2">
-        <v>-46</v>
+        <v>-5</v>
       </c>
       <c r="J63" s="3">
-        <v>1958.57</v>
+        <v>31.93</v>
       </c>
       <c r="K63" s="3">
-        <v>1958.57</v>
+        <v>31.93</v>
       </c>
       <c r="L63" t="s">
         <v>15</v>
@@ -3233,10 +3230,10 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>211111189</v>
+        <v>211111204</v>
       </c>
       <c r="B64" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C64" t="s">
         <v>16</v>
@@ -3245,25 +3242,25 @@
         <v>17</v>
       </c>
       <c r="E64">
-        <v>14306</v>
+        <v>13958</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G64" s="1">
-        <v>46014.315925925926</v>
+        <v>45969</v>
       </c>
       <c r="H64" s="1">
-        <v>45954.316296296296</v>
+        <v>45944.364386574074</v>
       </c>
       <c r="I64" s="2">
-        <v>-60</v>
+        <v>-5</v>
       </c>
       <c r="J64" s="3">
-        <v>2645.84</v>
+        <v>77.12</v>
       </c>
       <c r="K64" s="3">
-        <v>2645.84</v>
+        <v>77.12</v>
       </c>
       <c r="L64" t="s">
         <v>15</v>
@@ -3280,31 +3277,31 @@
         <v>38</v>
       </c>
       <c r="C65" t="s">
-        <v>37</v>
-      </c>
-      <c r="D65">
-        <v>2025</v>
+        <v>16</v>
+      </c>
+      <c r="D65" t="s">
+        <v>17</v>
       </c>
       <c r="E65">
-        <v>150</v>
+        <v>14109</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G65" s="1">
-        <v>45954</v>
+        <v>45969</v>
       </c>
       <c r="H65" s="1">
-        <v>45933</v>
+        <v>45947.387060185181</v>
       </c>
       <c r="I65" s="2">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="J65" s="3">
-        <v>581.94000000000005</v>
+        <v>68.19</v>
       </c>
       <c r="K65" s="3">
-        <v>581.94000000000005</v>
+        <v>68.19</v>
       </c>
       <c r="L65" t="s">
         <v>15</v>
@@ -3327,25 +3324,25 @@
         <v>17</v>
       </c>
       <c r="E66">
-        <v>13728</v>
+        <v>14187</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G66" s="1">
-        <v>45967.38108796296</v>
+        <v>45969</v>
       </c>
       <c r="H66" s="1">
-        <v>45937.381805555553</v>
+        <v>45951.391215277778</v>
       </c>
       <c r="I66" s="2">
-        <v>-13</v>
+        <v>-5</v>
       </c>
       <c r="J66" s="3">
-        <v>157.85</v>
+        <v>133.89000000000001</v>
       </c>
       <c r="K66" s="3">
-        <v>157.85</v>
+        <v>133.89000000000001</v>
       </c>
       <c r="L66" t="s">
         <v>15</v>
@@ -3368,25 +3365,25 @@
         <v>17</v>
       </c>
       <c r="E67">
-        <v>13902</v>
+        <v>14383</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G67" s="1">
         <v>45969</v>
       </c>
       <c r="H67" s="1">
-        <v>45940.424398148149</v>
+        <v>45958.352754629625</v>
       </c>
       <c r="I67" s="2">
-        <v>-15</v>
+        <v>-5</v>
       </c>
       <c r="J67" s="3">
-        <v>31.93</v>
+        <v>110.82000000000001</v>
       </c>
       <c r="K67" s="3">
-        <v>31.93</v>
+        <v>110.82000000000001</v>
       </c>
       <c r="L67" t="s">
         <v>15</v>
@@ -3409,25 +3406,25 @@
         <v>17</v>
       </c>
       <c r="E68">
-        <v>13958</v>
+        <v>14531</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G68" s="1">
         <v>45969</v>
       </c>
       <c r="H68" s="1">
-        <v>45944.364386574074</v>
+        <v>45961.369490740741</v>
       </c>
       <c r="I68" s="2">
-        <v>-15</v>
+        <v>-5</v>
       </c>
       <c r="J68" s="3">
-        <v>77.12</v>
+        <v>77.28</v>
       </c>
       <c r="K68" s="3">
-        <v>77.12</v>
+        <v>77.28</v>
       </c>
       <c r="L68" t="s">
         <v>15</v>
@@ -3444,31 +3441,31 @@
         <v>38</v>
       </c>
       <c r="C69" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D69" t="s">
         <v>17</v>
       </c>
       <c r="E69">
-        <v>14109</v>
+        <v>621</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G69" s="1">
         <v>45969</v>
       </c>
       <c r="H69" s="1">
-        <v>45947.387060185181</v>
+        <v>45958</v>
       </c>
       <c r="I69" s="2">
-        <v>-15</v>
+        <v>-5</v>
       </c>
       <c r="J69" s="3">
-        <v>68.19</v>
+        <v>-0.87</v>
       </c>
       <c r="K69" s="3">
-        <v>68.19</v>
+        <v>-0.87</v>
       </c>
       <c r="L69" t="s">
         <v>15</v>
@@ -3479,10 +3476,10 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>211111204</v>
+        <v>211111289</v>
       </c>
       <c r="B70" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C70" t="s">
         <v>16</v>
@@ -3491,31 +3488,31 @@
         <v>17</v>
       </c>
       <c r="E70">
-        <v>14187</v>
+        <v>13641</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G70" s="1">
-        <v>45969</v>
+        <v>45963.402407407404</v>
       </c>
       <c r="H70" s="1">
-        <v>45951.391215277778</v>
+        <v>45933.402685185181</v>
       </c>
       <c r="I70" s="2">
-        <v>-15</v>
+        <v>1</v>
       </c>
       <c r="J70" s="3">
-        <v>133.89000000000001</v>
+        <v>167.51</v>
       </c>
       <c r="K70" s="3">
-        <v>133.89000000000001</v>
+        <v>167.51</v>
       </c>
       <c r="L70" t="s">
         <v>15</v>
       </c>
       <c r="M70" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -3532,25 +3529,25 @@
         <v>17</v>
       </c>
       <c r="E71">
-        <v>13641</v>
+        <v>13729</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G71" s="1">
-        <v>45963.402407407404</v>
+        <v>45967.381967592592</v>
       </c>
       <c r="H71" s="1">
-        <v>45933.402685185181</v>
+        <v>45937.382430555554</v>
       </c>
       <c r="I71" s="2">
-        <v>-9</v>
+        <v>-3</v>
       </c>
       <c r="J71" s="3">
-        <v>167.51</v>
+        <v>47.39</v>
       </c>
       <c r="K71" s="3">
-        <v>167.51</v>
+        <v>47.39</v>
       </c>
       <c r="L71" t="s">
         <v>15</v>
@@ -3573,25 +3570,25 @@
         <v>17</v>
       </c>
       <c r="E72">
-        <v>13729</v>
+        <v>14108</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G72" s="1">
-        <v>45967.381967592592</v>
+        <v>45969</v>
       </c>
       <c r="H72" s="1">
-        <v>45937.382430555554</v>
+        <v>45947.385520833333</v>
       </c>
       <c r="I72" s="2">
-        <v>-13</v>
+        <v>-5</v>
       </c>
       <c r="J72" s="3">
-        <v>47.39</v>
+        <v>283.82</v>
       </c>
       <c r="K72" s="3">
-        <v>47.39</v>
+        <v>283.82</v>
       </c>
       <c r="L72" t="s">
         <v>15</v>
@@ -3614,25 +3611,25 @@
         <v>17</v>
       </c>
       <c r="E73">
-        <v>14108</v>
+        <v>14530</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G73" s="1">
         <v>45969</v>
       </c>
       <c r="H73" s="1">
-        <v>45947.385520833333</v>
+        <v>45961.367662037032</v>
       </c>
       <c r="I73" s="2">
-        <v>-15</v>
+        <v>-5</v>
       </c>
       <c r="J73" s="3">
-        <v>283.82</v>
+        <v>234.58</v>
       </c>
       <c r="K73" s="3">
-        <v>283.82</v>
+        <v>234.58</v>
       </c>
       <c r="L73" t="s">
         <v>15</v>
@@ -3667,7 +3664,7 @@
         <v>45937.401909722219</v>
       </c>
       <c r="I74" s="2">
-        <v>-22</v>
+        <v>-12</v>
       </c>
       <c r="J74" s="3">
         <v>286.66000000000003</v>
@@ -3708,7 +3705,7 @@
         <v>45940.375983796293</v>
       </c>
       <c r="I75" s="2">
-        <v>-22</v>
+        <v>-12</v>
       </c>
       <c r="J75" s="3">
         <v>29.04</v>
@@ -3749,7 +3746,7 @@
         <v>45944.397222222222</v>
       </c>
       <c r="I76" s="2">
-        <v>-22</v>
+        <v>-12</v>
       </c>
       <c r="J76" s="3">
         <v>62.9</v>
@@ -3790,7 +3787,7 @@
         <v>45951.355185185181</v>
       </c>
       <c r="I77" s="2">
-        <v>-22</v>
+        <v>-12</v>
       </c>
       <c r="J77" s="3">
         <v>189.75</v>
@@ -3813,13 +3810,13 @@
         <v>40</v>
       </c>
       <c r="C78" t="s">
-        <v>13</v>
-      </c>
-      <c r="D78">
-        <v>2025</v>
+        <v>16</v>
+      </c>
+      <c r="D78" t="s">
+        <v>17</v>
       </c>
       <c r="E78">
-        <v>937</v>
+        <v>14381</v>
       </c>
       <c r="F78" t="s">
         <v>14</v>
@@ -3828,16 +3825,16 @@
         <v>45976</v>
       </c>
       <c r="H78" s="1">
-        <v>45944</v>
+        <v>45958.3515625</v>
       </c>
       <c r="I78" s="2">
-        <v>-22</v>
+        <v>-12</v>
       </c>
       <c r="J78" s="3">
-        <v>-22.63</v>
+        <v>224.11</v>
       </c>
       <c r="K78" s="3">
-        <v>-22.63</v>
+        <v>224.11</v>
       </c>
       <c r="L78" t="s">
         <v>15</v>
@@ -3848,43 +3845,43 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>211111296</v>
+        <v>211111295</v>
       </c>
       <c r="B79" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C79" t="s">
-        <v>16</v>
-      </c>
-      <c r="D79" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="D79">
+        <v>2025</v>
       </c>
       <c r="E79">
-        <v>13489</v>
+        <v>937</v>
       </c>
       <c r="F79" t="s">
         <v>14</v>
       </c>
       <c r="G79" s="1">
-        <v>45945</v>
+        <v>45976</v>
       </c>
       <c r="H79" s="1">
-        <v>45930.360659722217</v>
+        <v>45944</v>
       </c>
       <c r="I79" s="2">
-        <v>9</v>
+        <v>-12</v>
       </c>
       <c r="J79" s="3">
-        <v>527.58000000000004</v>
+        <v>-22.63</v>
       </c>
       <c r="K79" s="3">
-        <v>527.58000000000004</v>
+        <v>-22.63</v>
       </c>
       <c r="L79" t="s">
         <v>15</v>
       </c>
       <c r="M79" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
@@ -3901,31 +3898,31 @@
         <v>17</v>
       </c>
       <c r="E80">
-        <v>13633</v>
+        <v>13489</v>
       </c>
       <c r="F80" t="s">
         <v>14</v>
       </c>
       <c r="G80" s="1">
-        <v>45976</v>
+        <v>45945</v>
       </c>
       <c r="H80" s="1">
-        <v>45933.367245370369</v>
+        <v>45930.360659722217</v>
       </c>
       <c r="I80" s="2">
-        <v>-22</v>
+        <v>19</v>
       </c>
       <c r="J80" s="3">
-        <v>263.04000000000002</v>
+        <v>527.58000000000004</v>
       </c>
       <c r="K80" s="3">
-        <v>263.04000000000002</v>
+        <v>527.58000000000004</v>
       </c>
       <c r="L80" t="s">
         <v>15</v>
       </c>
       <c r="M80" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
@@ -3942,7 +3939,7 @@
         <v>17</v>
       </c>
       <c r="E81">
-        <v>13701</v>
+        <v>13633</v>
       </c>
       <c r="F81" t="s">
         <v>14</v>
@@ -3951,16 +3948,16 @@
         <v>45976</v>
       </c>
       <c r="H81" s="1">
-        <v>45937.351377314815</v>
+        <v>45933.367245370369</v>
       </c>
       <c r="I81" s="2">
-        <v>-22</v>
+        <v>-12</v>
       </c>
       <c r="J81" s="3">
-        <v>88.39</v>
+        <v>263.04000000000002</v>
       </c>
       <c r="K81" s="3">
-        <v>88.39</v>
+        <v>263.04000000000002</v>
       </c>
       <c r="L81" t="s">
         <v>15</v>
@@ -3983,7 +3980,7 @@
         <v>17</v>
       </c>
       <c r="E82">
-        <v>13903</v>
+        <v>13701</v>
       </c>
       <c r="F82" t="s">
         <v>14</v>
@@ -3992,16 +3989,16 @@
         <v>45976</v>
       </c>
       <c r="H82" s="1">
-        <v>45940.425682870366</v>
+        <v>45937.351377314815</v>
       </c>
       <c r="I82" s="2">
-        <v>-22</v>
+        <v>-12</v>
       </c>
       <c r="J82" s="3">
-        <v>718.19</v>
+        <v>88.39</v>
       </c>
       <c r="K82" s="3">
-        <v>718.19</v>
+        <v>88.39</v>
       </c>
       <c r="L82" t="s">
         <v>15</v>
@@ -4024,7 +4021,7 @@
         <v>17</v>
       </c>
       <c r="E83">
-        <v>13962</v>
+        <v>13903</v>
       </c>
       <c r="F83" t="s">
         <v>14</v>
@@ -4033,16 +4030,16 @@
         <v>45976</v>
       </c>
       <c r="H83" s="1">
-        <v>45944.368900462963</v>
+        <v>45940.425682870366</v>
       </c>
       <c r="I83" s="2">
-        <v>-22</v>
+        <v>-12</v>
       </c>
       <c r="J83" s="3">
-        <v>75.680000000000007</v>
+        <v>718.19</v>
       </c>
       <c r="K83" s="3">
-        <v>75.680000000000007</v>
+        <v>718.19</v>
       </c>
       <c r="L83" t="s">
         <v>15</v>
@@ -4065,7 +4062,7 @@
         <v>17</v>
       </c>
       <c r="E84">
-        <v>14105</v>
+        <v>13962</v>
       </c>
       <c r="F84" t="s">
         <v>14</v>
@@ -4074,16 +4071,16 @@
         <v>45976</v>
       </c>
       <c r="H84" s="1">
-        <v>45947.381157407406</v>
+        <v>45944.368900462963</v>
       </c>
       <c r="I84" s="2">
-        <v>-22</v>
+        <v>-12</v>
       </c>
       <c r="J84" s="3">
-        <v>231.67000000000002</v>
+        <v>75.680000000000007</v>
       </c>
       <c r="K84" s="3">
-        <v>231.67000000000002</v>
+        <v>75.680000000000007</v>
       </c>
       <c r="L84" t="s">
         <v>15</v>
@@ -4106,7 +4103,7 @@
         <v>17</v>
       </c>
       <c r="E85">
-        <v>14173</v>
+        <v>14105</v>
       </c>
       <c r="F85" t="s">
         <v>14</v>
@@ -4115,16 +4112,16 @@
         <v>45976</v>
       </c>
       <c r="H85" s="1">
-        <v>45951.354710648149</v>
+        <v>45947.381157407406</v>
       </c>
       <c r="I85" s="2">
-        <v>-22</v>
+        <v>-12</v>
       </c>
       <c r="J85" s="3">
-        <v>115.48</v>
+        <v>231.67000000000002</v>
       </c>
       <c r="K85" s="3">
-        <v>115.48</v>
+        <v>231.67000000000002</v>
       </c>
       <c r="L85" t="s">
         <v>15</v>
@@ -4135,10 +4132,10 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>211111377</v>
+        <v>211111296</v>
       </c>
       <c r="B86" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C86" t="s">
         <v>16</v>
@@ -4147,25 +4144,25 @@
         <v>17</v>
       </c>
       <c r="E86">
-        <v>13556</v>
+        <v>14173</v>
       </c>
       <c r="F86" t="s">
         <v>14</v>
       </c>
       <c r="G86" s="1">
-        <v>45961.415370370371</v>
+        <v>45976</v>
       </c>
       <c r="H86" s="1">
-        <v>45931.415648148148</v>
+        <v>45951.354710648149</v>
       </c>
       <c r="I86" s="2">
-        <v>-7</v>
+        <v>-12</v>
       </c>
       <c r="J86" s="3">
-        <v>38.15</v>
+        <v>115.48</v>
       </c>
       <c r="K86" s="3">
-        <v>38.15</v>
+        <v>115.48</v>
       </c>
       <c r="L86" t="s">
         <v>15</v>
@@ -4176,10 +4173,10 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>211111377</v>
+        <v>211111296</v>
       </c>
       <c r="B87" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C87" t="s">
         <v>16</v>
@@ -4188,25 +4185,25 @@
         <v>17</v>
       </c>
       <c r="E87">
-        <v>13646</v>
+        <v>14386</v>
       </c>
       <c r="F87" t="s">
         <v>14</v>
       </c>
       <c r="G87" s="1">
-        <v>45963.444988425923</v>
+        <v>45976</v>
       </c>
       <c r="H87" s="1">
-        <v>45933.445462962962</v>
+        <v>45958.356354166666</v>
       </c>
       <c r="I87" s="2">
-        <v>-9</v>
+        <v>-12</v>
       </c>
       <c r="J87" s="3">
-        <v>23.21</v>
+        <v>346.28000000000003</v>
       </c>
       <c r="K87" s="3">
-        <v>23.21</v>
+        <v>346.28000000000003</v>
       </c>
       <c r="L87" t="s">
         <v>15</v>
@@ -4217,10 +4214,10 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>211111377</v>
+        <v>211111296</v>
       </c>
       <c r="B88" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C88" t="s">
         <v>16</v>
@@ -4229,25 +4226,25 @@
         <v>17</v>
       </c>
       <c r="E88">
-        <v>13676</v>
+        <v>14525</v>
       </c>
       <c r="F88" t="s">
         <v>14</v>
       </c>
       <c r="G88" s="1">
-        <v>45966.408761574072</v>
+        <v>45976</v>
       </c>
       <c r="H88" s="1">
-        <v>45936.409317129626</v>
+        <v>45961.358819444446</v>
       </c>
       <c r="I88" s="2">
         <v>-12</v>
       </c>
       <c r="J88" s="3">
-        <v>46.43</v>
+        <v>224.38</v>
       </c>
       <c r="K88" s="3">
-        <v>46.43</v>
+        <v>224.38</v>
       </c>
       <c r="L88" t="s">
         <v>15</v>
@@ -4270,31 +4267,31 @@
         <v>17</v>
       </c>
       <c r="E89">
-        <v>13887</v>
+        <v>13556</v>
       </c>
       <c r="F89" t="s">
         <v>14</v>
       </c>
       <c r="G89" s="1">
-        <v>45969</v>
+        <v>45961.415370370371</v>
       </c>
       <c r="H89" s="1">
-        <v>45940.37909722222</v>
+        <v>45931.415648148148</v>
       </c>
       <c r="I89" s="2">
-        <v>-15</v>
+        <v>3</v>
       </c>
       <c r="J89" s="3">
-        <v>94.850000000000009</v>
+        <v>38.15</v>
       </c>
       <c r="K89" s="3">
-        <v>94.850000000000009</v>
+        <v>38.15</v>
       </c>
       <c r="L89" t="s">
         <v>15</v>
       </c>
       <c r="M89" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -4311,31 +4308,31 @@
         <v>17</v>
       </c>
       <c r="E90">
-        <v>13930</v>
+        <v>13646</v>
       </c>
       <c r="F90" t="s">
         <v>14</v>
       </c>
       <c r="G90" s="1">
-        <v>45969</v>
+        <v>45963.444988425923</v>
       </c>
       <c r="H90" s="1">
-        <v>45943.421458333331</v>
+        <v>45933.445462962962</v>
       </c>
       <c r="I90" s="2">
-        <v>-15</v>
+        <v>1</v>
       </c>
       <c r="J90" s="3">
-        <v>120.53</v>
+        <v>23.21</v>
       </c>
       <c r="K90" s="3">
-        <v>120.53</v>
+        <v>23.21</v>
       </c>
       <c r="L90" t="s">
         <v>15</v>
       </c>
       <c r="M90" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
@@ -4352,25 +4349,25 @@
         <v>17</v>
       </c>
       <c r="E91">
-        <v>14077</v>
+        <v>13676</v>
       </c>
       <c r="F91" t="s">
         <v>14</v>
       </c>
       <c r="G91" s="1">
-        <v>45969</v>
+        <v>45966.408761574072</v>
       </c>
       <c r="H91" s="1">
-        <v>45946.660486111112</v>
+        <v>45936.409317129626</v>
       </c>
       <c r="I91" s="2">
-        <v>-15</v>
+        <v>-2</v>
       </c>
       <c r="J91" s="3">
-        <v>11.77</v>
+        <v>46.43</v>
       </c>
       <c r="K91" s="3">
-        <v>11.77</v>
+        <v>46.43</v>
       </c>
       <c r="L91" t="s">
         <v>15</v>
@@ -4393,7 +4390,7 @@
         <v>17</v>
       </c>
       <c r="E92">
-        <v>14146</v>
+        <v>13887</v>
       </c>
       <c r="F92" t="s">
         <v>14</v>
@@ -4402,16 +4399,16 @@
         <v>45969</v>
       </c>
       <c r="H92" s="1">
-        <v>45950.421782407408</v>
+        <v>45940.37909722222</v>
       </c>
       <c r="I92" s="2">
-        <v>-15</v>
+        <v>-5</v>
       </c>
       <c r="J92" s="3">
-        <v>107.59</v>
+        <v>94.850000000000009</v>
       </c>
       <c r="K92" s="3">
-        <v>107.59</v>
+        <v>94.850000000000009</v>
       </c>
       <c r="L92" t="s">
         <v>15</v>
@@ -4434,7 +4431,7 @@
         <v>17</v>
       </c>
       <c r="E93">
-        <v>14147</v>
+        <v>13930</v>
       </c>
       <c r="F93" t="s">
         <v>14</v>
@@ -4443,16 +4440,16 @@
         <v>45969</v>
       </c>
       <c r="H93" s="1">
-        <v>45950.424965277773</v>
+        <v>45943.421458333331</v>
       </c>
       <c r="I93" s="2">
-        <v>-15</v>
+        <v>-5</v>
       </c>
       <c r="J93" s="3">
-        <v>11.77</v>
+        <v>120.53</v>
       </c>
       <c r="K93" s="3">
-        <v>11.77</v>
+        <v>120.53</v>
       </c>
       <c r="L93" t="s">
         <v>15</v>
@@ -4475,7 +4472,7 @@
         <v>17</v>
       </c>
       <c r="E94">
-        <v>14324</v>
+        <v>14077</v>
       </c>
       <c r="F94" t="s">
         <v>14</v>
@@ -4484,16 +4481,16 @@
         <v>45969</v>
       </c>
       <c r="H94" s="1">
-        <v>45954.362696759257</v>
+        <v>45946.660486111112</v>
       </c>
       <c r="I94" s="2">
-        <v>-15</v>
+        <v>-5</v>
       </c>
       <c r="J94" s="3">
-        <v>26.04</v>
+        <v>11.77</v>
       </c>
       <c r="K94" s="3">
-        <v>26.04</v>
+        <v>11.77</v>
       </c>
       <c r="L94" t="s">
         <v>15</v>
@@ -4504,10 +4501,10 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>211111534</v>
+        <v>211111377</v>
       </c>
       <c r="B95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C95" t="s">
         <v>16</v>
@@ -4516,25 +4513,25 @@
         <v>17</v>
       </c>
       <c r="E95">
-        <v>13776</v>
+        <v>14146</v>
       </c>
       <c r="F95" t="s">
         <v>14</v>
       </c>
       <c r="G95" s="1">
-        <v>45968.36546296296</v>
+        <v>45969</v>
       </c>
       <c r="H95" s="1">
-        <v>45938.365787037037</v>
+        <v>45950.421782407408</v>
       </c>
       <c r="I95" s="2">
-        <v>-14</v>
+        <v>-5</v>
       </c>
       <c r="J95" s="3">
-        <v>37.17</v>
+        <v>107.59</v>
       </c>
       <c r="K95" s="3">
-        <v>37.17</v>
+        <v>107.59</v>
       </c>
       <c r="L95" t="s">
         <v>15</v>
@@ -4545,10 +4542,10 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>211111534</v>
+        <v>211111377</v>
       </c>
       <c r="B96" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C96" t="s">
         <v>16</v>
@@ -4557,7 +4554,7 @@
         <v>17</v>
       </c>
       <c r="E96">
-        <v>14094</v>
+        <v>14147</v>
       </c>
       <c r="F96" t="s">
         <v>14</v>
@@ -4566,16 +4563,16 @@
         <v>45969</v>
       </c>
       <c r="H96" s="1">
-        <v>45947.353807870371</v>
+        <v>45950.424965277773</v>
       </c>
       <c r="I96" s="2">
-        <v>-15</v>
+        <v>-5</v>
       </c>
       <c r="J96" s="3">
-        <v>174.11</v>
+        <v>11.77</v>
       </c>
       <c r="K96" s="3">
-        <v>174.11</v>
+        <v>11.77</v>
       </c>
       <c r="L96" t="s">
         <v>15</v>
@@ -4586,10 +4583,10 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>211111534</v>
+        <v>211111377</v>
       </c>
       <c r="B97" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C97" t="s">
         <v>16</v>
@@ -4598,7 +4595,7 @@
         <v>17</v>
       </c>
       <c r="E97">
-        <v>14120</v>
+        <v>14324</v>
       </c>
       <c r="F97" t="s">
         <v>14</v>
@@ -4607,16 +4604,16 @@
         <v>45969</v>
       </c>
       <c r="H97" s="1">
-        <v>45947.517534722218</v>
+        <v>45954.362696759257</v>
       </c>
       <c r="I97" s="2">
-        <v>-15</v>
+        <v>-5</v>
       </c>
       <c r="J97" s="3">
-        <v>33.9</v>
+        <v>26.04</v>
       </c>
       <c r="K97" s="3">
-        <v>33.9</v>
+        <v>26.04</v>
       </c>
       <c r="L97" t="s">
         <v>15</v>
@@ -4627,10 +4624,10 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>211111534</v>
+        <v>211111377</v>
       </c>
       <c r="B98" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C98" t="s">
         <v>16</v>
@@ -4639,7 +4636,7 @@
         <v>17</v>
       </c>
       <c r="E98">
-        <v>14321</v>
+        <v>14354</v>
       </c>
       <c r="F98" t="s">
         <v>14</v>
@@ -4648,16 +4645,16 @@
         <v>45969</v>
       </c>
       <c r="H98" s="1">
-        <v>45954.358587962961</v>
+        <v>45957.386712962958</v>
       </c>
       <c r="I98" s="2">
-        <v>-15</v>
+        <v>-5</v>
       </c>
       <c r="J98" s="3">
-        <v>144.67000000000002</v>
+        <v>109.64</v>
       </c>
       <c r="K98" s="3">
-        <v>144.67000000000002</v>
+        <v>109.64</v>
       </c>
       <c r="L98" t="s">
         <v>15</v>
@@ -4668,10 +4665,10 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>211111565</v>
+        <v>211111377</v>
       </c>
       <c r="B99" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C99" t="s">
         <v>16</v>
@@ -4680,25 +4677,25 @@
         <v>17</v>
       </c>
       <c r="E99">
-        <v>13885</v>
+        <v>14447</v>
       </c>
       <c r="F99" t="s">
         <v>14</v>
       </c>
       <c r="G99" s="1">
-        <v>45970.377384259256</v>
+        <v>45969</v>
       </c>
       <c r="H99" s="1">
-        <v>45940.377719907403</v>
+        <v>45959.386400462958</v>
       </c>
       <c r="I99" s="2">
-        <v>-16</v>
+        <v>-5</v>
       </c>
       <c r="J99" s="3">
-        <v>249.44</v>
+        <v>60.38</v>
       </c>
       <c r="K99" s="3">
-        <v>249.44</v>
+        <v>60.38</v>
       </c>
       <c r="L99" t="s">
         <v>15</v>
@@ -4709,10 +4706,10 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>211111565</v>
+        <v>211111534</v>
       </c>
       <c r="B100" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C100" t="s">
         <v>16</v>
@@ -4721,25 +4718,25 @@
         <v>17</v>
       </c>
       <c r="E100">
-        <v>14014</v>
+        <v>13776</v>
       </c>
       <c r="F100" t="s">
         <v>14</v>
       </c>
       <c r="G100" s="1">
-        <v>45975.35659722222</v>
+        <v>45968.36546296296</v>
       </c>
       <c r="H100" s="1">
-        <v>45945.357094907406</v>
+        <v>45938.365787037037</v>
       </c>
       <c r="I100" s="2">
-        <v>-21</v>
+        <v>-4</v>
       </c>
       <c r="J100" s="3">
-        <v>43.92</v>
+        <v>37.17</v>
       </c>
       <c r="K100" s="3">
-        <v>43.92</v>
+        <v>37.17</v>
       </c>
       <c r="L100" t="s">
         <v>15</v>
@@ -4750,10 +4747,10 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>211111565</v>
+        <v>211111534</v>
       </c>
       <c r="B101" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C101" t="s">
         <v>16</v>
@@ -4762,25 +4759,25 @@
         <v>17</v>
       </c>
       <c r="E101">
-        <v>14020</v>
+        <v>14094</v>
       </c>
       <c r="F101" t="s">
         <v>14</v>
       </c>
       <c r="G101" s="1">
-        <v>45975.367314814815</v>
+        <v>45969</v>
       </c>
       <c r="H101" s="1">
-        <v>45945.369016203702</v>
+        <v>45947.353807870371</v>
       </c>
       <c r="I101" s="2">
-        <v>-21</v>
+        <v>-5</v>
       </c>
       <c r="J101" s="3">
-        <v>210.6</v>
+        <v>174.11</v>
       </c>
       <c r="K101" s="3">
-        <v>210.6</v>
+        <v>174.11</v>
       </c>
       <c r="L101" t="s">
         <v>15</v>
@@ -4791,10 +4788,10 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>211111565</v>
+        <v>211111534</v>
       </c>
       <c r="B102" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C102" t="s">
         <v>16</v>
@@ -4803,25 +4800,25 @@
         <v>17</v>
       </c>
       <c r="E102">
-        <v>14234</v>
+        <v>14120</v>
       </c>
       <c r="F102" t="s">
         <v>14</v>
       </c>
       <c r="G102" s="1">
-        <v>45982.383159722223</v>
+        <v>45969</v>
       </c>
       <c r="H102" s="1">
-        <v>45952.383680555555</v>
+        <v>45947.517534722218</v>
       </c>
       <c r="I102" s="2">
-        <v>-28</v>
+        <v>-5</v>
       </c>
       <c r="J102" s="3">
-        <v>271.64999999999998</v>
+        <v>33.9</v>
       </c>
       <c r="K102" s="3">
-        <v>271.64999999999998</v>
+        <v>33.9</v>
       </c>
       <c r="L102" t="s">
         <v>15</v>
@@ -4832,10 +4829,10 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>211111595</v>
+        <v>211111534</v>
       </c>
       <c r="B103" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C103" t="s">
         <v>16</v>
@@ -4844,39 +4841,39 @@
         <v>17</v>
       </c>
       <c r="E103">
-        <v>11458</v>
+        <v>14321</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G103" s="1">
-        <v>45934.540509259255</v>
+        <v>45969</v>
       </c>
       <c r="H103" s="1">
-        <v>45874.540509259255</v>
+        <v>45954.358587962961</v>
       </c>
       <c r="I103" s="2">
-        <v>20</v>
+        <v>-5</v>
       </c>
       <c r="J103" s="3">
-        <v>33.160000000000004</v>
+        <v>144.67000000000002</v>
       </c>
       <c r="K103" s="3">
-        <v>33.160000000000004</v>
+        <v>144.67000000000002</v>
       </c>
       <c r="L103" t="s">
         <v>15</v>
       </c>
       <c r="M103" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>211111595</v>
+        <v>211111534</v>
       </c>
       <c r="B104" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C104" t="s">
         <v>16</v>
@@ -4885,121 +4882,121 @@
         <v>17</v>
       </c>
       <c r="E104">
-        <v>11479</v>
+        <v>14539</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G104" s="1">
-        <v>45935.382094907407</v>
+        <v>45969</v>
       </c>
       <c r="H104" s="1">
-        <v>45875.382094907407</v>
+        <v>45961.379537037035</v>
       </c>
       <c r="I104" s="2">
-        <v>19</v>
+        <v>-5</v>
       </c>
       <c r="J104" s="3">
-        <v>99.600000000000009</v>
+        <v>42.52</v>
       </c>
       <c r="K104" s="3">
-        <v>99.600000000000009</v>
+        <v>42.52</v>
       </c>
       <c r="L104" t="s">
         <v>15</v>
       </c>
       <c r="M104" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>211111595</v>
+        <v>211111534</v>
       </c>
       <c r="B105" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C105" t="s">
-        <v>16</v>
-      </c>
-      <c r="D105" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="D105">
+        <v>2025</v>
       </c>
       <c r="E105">
-        <v>11551</v>
+        <v>950</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G105" s="1">
-        <v>45935.671157407407</v>
+        <v>45969</v>
       </c>
       <c r="H105" s="1">
-        <v>45875.671620370369</v>
+        <v>45948</v>
       </c>
       <c r="I105" s="2">
-        <v>19</v>
+        <v>-5</v>
       </c>
       <c r="J105" s="3">
-        <v>181.97</v>
+        <v>-2.74</v>
       </c>
       <c r="K105" s="3">
-        <v>181.97</v>
+        <v>-2.74</v>
       </c>
       <c r="L105" t="s">
         <v>15</v>
       </c>
       <c r="M105" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>211111595</v>
+        <v>211111565</v>
       </c>
       <c r="B106" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C106" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D106" t="s">
         <v>17</v>
       </c>
       <c r="E106">
-        <v>11631</v>
+        <v>614</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G106" s="1">
-        <v>45937.57476851852</v>
+        <v>45980</v>
       </c>
       <c r="H106" s="1">
-        <v>45877.57476851852</v>
+        <v>45950</v>
       </c>
       <c r="I106" s="2">
-        <v>17</v>
+        <v>-16</v>
       </c>
       <c r="J106" s="3">
-        <v>198.83</v>
+        <v>-23.490000000000002</v>
       </c>
       <c r="K106" s="3">
-        <v>198.83</v>
+        <v>-23.490000000000002</v>
       </c>
       <c r="L106" t="s">
         <v>15</v>
       </c>
       <c r="M106" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>211111595</v>
+        <v>211111565</v>
       </c>
       <c r="B107" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C107" t="s">
         <v>16</v>
@@ -5008,80 +5005,80 @@
         <v>17</v>
       </c>
       <c r="E107">
-        <v>11638</v>
+        <v>14234</v>
       </c>
       <c r="F107" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G107" s="1">
-        <v>45937.580046296294</v>
+        <v>45982.383159722223</v>
       </c>
       <c r="H107" s="1">
-        <v>45877.580057870371</v>
+        <v>45952.383680555555</v>
       </c>
       <c r="I107" s="2">
-        <v>17</v>
+        <v>-18</v>
       </c>
       <c r="J107" s="3">
-        <v>16.57</v>
+        <v>271.64999999999998</v>
       </c>
       <c r="K107" s="3">
-        <v>16.57</v>
+        <v>271.64999999999998</v>
       </c>
       <c r="L107" t="s">
         <v>15</v>
       </c>
       <c r="M107" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>211111595</v>
+        <v>211111565</v>
       </c>
       <c r="B108" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C108" t="s">
-        <v>13</v>
-      </c>
-      <c r="D108">
-        <v>2025</v>
+        <v>16</v>
+      </c>
+      <c r="D108" t="s">
+        <v>17</v>
       </c>
       <c r="E108">
-        <v>747</v>
+        <v>14444</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G108" s="1">
-        <v>45938</v>
+        <v>45989.375173611108</v>
       </c>
       <c r="H108" s="1">
-        <v>45878</v>
+        <v>45959.375567129631</v>
       </c>
       <c r="I108" s="2">
-        <v>16</v>
+        <v>-25</v>
       </c>
       <c r="J108" s="3">
-        <v>-30.59</v>
+        <v>199.03</v>
       </c>
       <c r="K108" s="3">
-        <v>-30.59</v>
+        <v>199.03</v>
       </c>
       <c r="L108" t="s">
         <v>15</v>
       </c>
       <c r="M108" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>211111595</v>
+        <v>211111605</v>
       </c>
       <c r="B109" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="C109" t="s">
         <v>16</v>
@@ -5090,36 +5087,36 @@
         <v>17</v>
       </c>
       <c r="E109">
-        <v>11743</v>
+        <v>14405</v>
       </c>
       <c r="F109" t="s">
         <v>14</v>
       </c>
       <c r="G109" s="1">
-        <v>45941.43954861111</v>
+        <v>45988.39157407407</v>
       </c>
       <c r="H109" s="1">
-        <v>45881.439560185187</v>
+        <v>45958.392118055555</v>
       </c>
       <c r="I109" s="2">
-        <v>13</v>
+        <v>-24</v>
       </c>
       <c r="J109" s="3">
-        <v>118.92</v>
+        <v>278.47000000000003</v>
       </c>
       <c r="K109" s="3">
-        <v>118.92</v>
+        <v>278.47000000000003</v>
       </c>
       <c r="L109" t="s">
         <v>15</v>
       </c>
       <c r="M109" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>211111595</v>
+        <v>211111614</v>
       </c>
       <c r="B110" t="s">
         <v>44</v>
@@ -5131,36 +5128,36 @@
         <v>17</v>
       </c>
       <c r="E110">
-        <v>11899</v>
+        <v>13322</v>
       </c>
       <c r="F110" t="s">
         <v>14</v>
       </c>
       <c r="G110" s="1">
-        <v>45943.465740740736</v>
+        <v>45954.378263888888</v>
       </c>
       <c r="H110" s="1">
-        <v>45883.465740740736</v>
+        <v>45924.378599537034</v>
       </c>
       <c r="I110" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J110" s="3">
-        <v>95.460000000000008</v>
+        <v>167.38</v>
       </c>
       <c r="K110" s="3">
-        <v>95.460000000000008</v>
+        <v>124.09</v>
       </c>
       <c r="L110" t="s">
         <v>15</v>
       </c>
       <c r="M110" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>211111595</v>
+        <v>211111614</v>
       </c>
       <c r="B111" t="s">
         <v>44</v>
@@ -5172,36 +5169,36 @@
         <v>17</v>
       </c>
       <c r="E111">
-        <v>12963</v>
+        <v>14022</v>
       </c>
       <c r="F111" t="s">
         <v>14</v>
       </c>
       <c r="G111" s="1">
-        <v>45946.371261574073</v>
+        <v>45975.379606481481</v>
       </c>
       <c r="H111" s="1">
-        <v>45916.371261574073</v>
+        <v>45945.380266203705</v>
       </c>
       <c r="I111" s="2">
-        <v>8</v>
+        <v>-11</v>
       </c>
       <c r="J111" s="3">
-        <v>27.92</v>
+        <v>111.43</v>
       </c>
       <c r="K111" s="3">
-        <v>27.92</v>
+        <v>111.43</v>
       </c>
       <c r="L111" t="s">
         <v>15</v>
       </c>
       <c r="M111" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>211111595</v>
+        <v>211111614</v>
       </c>
       <c r="B112" t="s">
         <v>44</v>
@@ -5213,36 +5210,36 @@
         <v>17</v>
       </c>
       <c r="E112">
-        <v>12991</v>
+        <v>14224</v>
       </c>
       <c r="F112" t="s">
         <v>14</v>
       </c>
       <c r="G112" s="1">
-        <v>45946.437546296293</v>
+        <v>45982.361608796295</v>
       </c>
       <c r="H112" s="1">
-        <v>45916.437546296293</v>
+        <v>45952.362187499995</v>
       </c>
       <c r="I112" s="2">
-        <v>8</v>
+        <v>-18</v>
       </c>
       <c r="J112" s="3">
-        <v>24.580000000000002</v>
+        <v>110.04</v>
       </c>
       <c r="K112" s="3">
-        <v>24.580000000000002</v>
+        <v>110.04</v>
       </c>
       <c r="L112" t="s">
         <v>15</v>
       </c>
       <c r="M112" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>211111595</v>
+        <v>211111614</v>
       </c>
       <c r="B113" t="s">
         <v>44</v>
@@ -5254,39 +5251,39 @@
         <v>17</v>
       </c>
       <c r="E113">
-        <v>12008</v>
+        <v>14448</v>
       </c>
       <c r="F113" t="s">
         <v>14</v>
       </c>
       <c r="G113" s="1">
-        <v>45948.531388888885</v>
+        <v>45989.387083333335</v>
       </c>
       <c r="H113" s="1">
-        <v>45888.531400462962</v>
+        <v>45959.388032407405</v>
       </c>
       <c r="I113" s="2">
-        <v>6</v>
+        <v>-25</v>
       </c>
       <c r="J113" s="3">
-        <v>178.95000000000002</v>
+        <v>123.27</v>
       </c>
       <c r="K113" s="3">
-        <v>178.95000000000002</v>
+        <v>123.27</v>
       </c>
       <c r="L113" t="s">
         <v>15</v>
       </c>
       <c r="M113" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>211111595</v>
+        <v>211111625</v>
       </c>
       <c r="B114" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="C114" t="s">
         <v>16</v>
@@ -5295,39 +5292,39 @@
         <v>17</v>
       </c>
       <c r="E114">
-        <v>12186</v>
+        <v>13479</v>
       </c>
       <c r="F114" t="s">
         <v>14</v>
       </c>
       <c r="G114" s="1">
-        <v>45951.438761574071</v>
+        <v>45960.351689814815</v>
       </c>
       <c r="H114" s="1">
-        <v>45891.438761574071</v>
+        <v>45930.352094907408</v>
       </c>
       <c r="I114" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J114" s="3">
-        <v>105.57000000000001</v>
+        <v>297.05</v>
       </c>
       <c r="K114" s="3">
-        <v>105.57000000000001</v>
+        <v>297.05</v>
       </c>
       <c r="L114" t="s">
         <v>15</v>
       </c>
       <c r="M114" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>211111595</v>
+        <v>211111625</v>
       </c>
       <c r="B115" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="C115" t="s">
         <v>16</v>
@@ -5336,25 +5333,25 @@
         <v>17</v>
       </c>
       <c r="E115">
-        <v>12294</v>
+        <v>13703</v>
       </c>
       <c r="F115" t="s">
         <v>14</v>
       </c>
       <c r="G115" s="1">
-        <v>45955.525266203702</v>
+        <v>45967.352754629625</v>
       </c>
       <c r="H115" s="1">
-        <v>45895.525266203702</v>
+        <v>45937.352997685186</v>
       </c>
       <c r="I115" s="2">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="J115" s="3">
-        <v>208.08</v>
+        <v>333.18</v>
       </c>
       <c r="K115" s="3">
-        <v>208.08</v>
+        <v>333.18</v>
       </c>
       <c r="L115" t="s">
         <v>15</v>
@@ -5365,37 +5362,37 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>211111614</v>
+        <v>211111625</v>
       </c>
       <c r="B116" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="C116" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D116" t="s">
         <v>17</v>
       </c>
       <c r="E116">
-        <v>13322</v>
+        <v>593</v>
       </c>
       <c r="F116" t="s">
         <v>14</v>
       </c>
       <c r="G116" s="1">
-        <v>45954.378263888888</v>
+        <v>45968</v>
       </c>
       <c r="H116" s="1">
-        <v>45924.378599537034</v>
+        <v>45938</v>
       </c>
       <c r="I116" s="2">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="J116" s="3">
-        <v>167.38</v>
+        <v>-8.24</v>
       </c>
       <c r="K116" s="3">
-        <v>124.09</v>
+        <v>-8.24</v>
       </c>
       <c r="L116" t="s">
         <v>15</v>
@@ -5406,10 +5403,10 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>211111614</v>
+        <v>211111625</v>
       </c>
       <c r="B117" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="C117" t="s">
         <v>16</v>
@@ -5418,25 +5415,25 @@
         <v>17</v>
       </c>
       <c r="E117">
-        <v>13531</v>
+        <v>14176</v>
       </c>
       <c r="F117" t="s">
         <v>14</v>
       </c>
       <c r="G117" s="1">
-        <v>45961.370462962965</v>
+        <v>45981.366388888884</v>
       </c>
       <c r="H117" s="1">
-        <v>45931.370763888888</v>
+        <v>45951.366759259254</v>
       </c>
       <c r="I117" s="2">
-        <v>-7</v>
+        <v>-17</v>
       </c>
       <c r="J117" s="3">
-        <v>294.45999999999998</v>
+        <v>607.69000000000005</v>
       </c>
       <c r="K117" s="3">
-        <v>294.45999999999998</v>
+        <v>607.69000000000005</v>
       </c>
       <c r="L117" t="s">
         <v>15</v>
@@ -5447,10 +5444,10 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>211111614</v>
+        <v>211111625</v>
       </c>
       <c r="B118" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="C118" t="s">
         <v>16</v>
@@ -5459,25 +5456,25 @@
         <v>17</v>
       </c>
       <c r="E118">
-        <v>13758</v>
+        <v>14404</v>
       </c>
       <c r="F118" t="s">
         <v>14</v>
       </c>
       <c r="G118" s="1">
-        <v>45968.339872685181</v>
+        <v>45988.390416666662</v>
       </c>
       <c r="H118" s="1">
-        <v>45938.340312499997</v>
+        <v>45958.390925925924</v>
       </c>
       <c r="I118" s="2">
-        <v>-14</v>
+        <v>-24</v>
       </c>
       <c r="J118" s="3">
-        <v>221.71</v>
+        <v>881.85</v>
       </c>
       <c r="K118" s="3">
-        <v>221.71</v>
+        <v>881.85</v>
       </c>
       <c r="L118" t="s">
         <v>15</v>
@@ -5488,10 +5485,10 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>211111614</v>
+        <v>211111625</v>
       </c>
       <c r="B119" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="C119" t="s">
         <v>16</v>
@@ -5500,25 +5497,25 @@
         <v>17</v>
       </c>
       <c r="E119">
-        <v>14022</v>
+        <v>14546</v>
       </c>
       <c r="F119" t="s">
         <v>14</v>
       </c>
       <c r="G119" s="1">
-        <v>45975.379606481481</v>
+        <v>45991.436122685183</v>
       </c>
       <c r="H119" s="1">
-        <v>45945.380266203705</v>
+        <v>45961.446828703702</v>
       </c>
       <c r="I119" s="2">
-        <v>-21</v>
+        <v>-27</v>
       </c>
       <c r="J119" s="3">
-        <v>111.43</v>
+        <v>722.49</v>
       </c>
       <c r="K119" s="3">
-        <v>111.43</v>
+        <v>722.49</v>
       </c>
       <c r="L119" t="s">
         <v>15</v>
@@ -5529,10 +5526,10 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>211111614</v>
+        <v>211111630</v>
       </c>
       <c r="B120" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C120" t="s">
         <v>16</v>
@@ -5541,31 +5538,31 @@
         <v>17</v>
       </c>
       <c r="E120">
-        <v>14224</v>
+        <v>11904</v>
       </c>
       <c r="F120" t="s">
         <v>14</v>
       </c>
       <c r="G120" s="1">
-        <v>45982.361608796295</v>
+        <v>45913.465856481482</v>
       </c>
       <c r="H120" s="1">
-        <v>45952.362187499995</v>
+        <v>45883.465856481482</v>
       </c>
       <c r="I120" s="2">
-        <v>-28</v>
+        <v>51</v>
       </c>
       <c r="J120" s="3">
-        <v>110.04</v>
+        <v>1050.67</v>
       </c>
       <c r="K120" s="3">
-        <v>110.04</v>
+        <v>1037.2</v>
       </c>
       <c r="L120" t="s">
         <v>15</v>
       </c>
       <c r="M120" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -5582,25 +5579,25 @@
         <v>17</v>
       </c>
       <c r="E121">
-        <v>11321</v>
+        <v>12011</v>
       </c>
       <c r="F121" t="s">
         <v>14</v>
       </c>
       <c r="G121" s="1">
-        <v>45900.45585648148</v>
+        <v>45918.531481481477</v>
       </c>
       <c r="H121" s="1">
-        <v>45870.45585648148</v>
+        <v>45888.531481481477</v>
       </c>
       <c r="I121" s="2">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J121" s="3">
-        <v>1127.3399999999999</v>
+        <v>395.36</v>
       </c>
       <c r="K121" s="3">
-        <v>16.940000000000001</v>
+        <v>395.36</v>
       </c>
       <c r="L121" t="s">
         <v>15</v>
@@ -5623,25 +5620,25 @@
         <v>17</v>
       </c>
       <c r="E122">
-        <v>11486</v>
+        <v>12293</v>
       </c>
       <c r="F122" t="s">
         <v>14</v>
       </c>
       <c r="G122" s="1">
-        <v>45905.382303240738</v>
+        <v>45925.524351851847</v>
       </c>
       <c r="H122" s="1">
-        <v>45875.382314814815</v>
+        <v>45895.524351851847</v>
       </c>
       <c r="I122" s="2">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="J122" s="3">
-        <v>222.57</v>
+        <v>423.06</v>
       </c>
       <c r="K122" s="3">
-        <v>222.57</v>
+        <v>423.06</v>
       </c>
       <c r="L122" t="s">
         <v>15</v>
@@ -5664,25 +5661,25 @@
         <v>17</v>
       </c>
       <c r="E123">
-        <v>11634</v>
+        <v>12434</v>
       </c>
       <c r="F123" t="s">
         <v>14</v>
       </c>
       <c r="G123" s="1">
-        <v>45907.574861111112</v>
+        <v>45928.427835648145</v>
       </c>
       <c r="H123" s="1">
-        <v>45877.574872685182</v>
+        <v>45898.427847222221</v>
       </c>
       <c r="I123" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="J123" s="3">
-        <v>345.14</v>
+        <v>536.85</v>
       </c>
       <c r="K123" s="3">
-        <v>345.14</v>
+        <v>536.85</v>
       </c>
       <c r="L123" t="s">
         <v>15</v>
@@ -5693,10 +5690,10 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>211111630</v>
+        <v>211111656</v>
       </c>
       <c r="B124" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C124" t="s">
         <v>16</v>
@@ -5705,39 +5702,39 @@
         <v>17</v>
       </c>
       <c r="E124">
-        <v>11904</v>
+        <v>14083</v>
       </c>
       <c r="F124" t="s">
         <v>14</v>
       </c>
       <c r="G124" s="1">
-        <v>45913.465856481482</v>
+        <v>45977.284409722219</v>
       </c>
       <c r="H124" s="1">
-        <v>45883.465856481482</v>
+        <v>45947.285104166665</v>
       </c>
       <c r="I124" s="2">
-        <v>41</v>
+        <v>-13</v>
       </c>
       <c r="J124" s="3">
-        <v>1050.67</v>
+        <v>309.42</v>
       </c>
       <c r="K124" s="3">
-        <v>1050.67</v>
+        <v>309.42</v>
       </c>
       <c r="L124" t="s">
         <v>15</v>
       </c>
       <c r="M124" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>211111630</v>
+        <v>211111850</v>
       </c>
       <c r="B125" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C125" t="s">
         <v>16</v>
@@ -5746,39 +5743,39 @@
         <v>17</v>
       </c>
       <c r="E125">
-        <v>12011</v>
+        <v>13900</v>
       </c>
       <c r="F125" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G125" s="1">
-        <v>45918.531481481477</v>
+        <v>45969</v>
       </c>
       <c r="H125" s="1">
-        <v>45888.531481481477</v>
+        <v>45940.422523148147</v>
       </c>
       <c r="I125" s="2">
-        <v>36</v>
+        <v>-5</v>
       </c>
       <c r="J125" s="3">
-        <v>395.36</v>
+        <v>65.150000000000006</v>
       </c>
       <c r="K125" s="3">
-        <v>395.36</v>
+        <v>65.150000000000006</v>
       </c>
       <c r="L125" t="s">
         <v>15</v>
       </c>
       <c r="M125" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>211111630</v>
+        <v>211111850</v>
       </c>
       <c r="B126" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C126" t="s">
         <v>16</v>
@@ -5787,39 +5784,39 @@
         <v>17</v>
       </c>
       <c r="E126">
-        <v>12293</v>
+        <v>14171</v>
       </c>
       <c r="F126" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G126" s="1">
-        <v>45925.524351851847</v>
+        <v>45969</v>
       </c>
       <c r="H126" s="1">
-        <v>45895.524351851847</v>
+        <v>45951.353437500002</v>
       </c>
       <c r="I126" s="2">
-        <v>29</v>
+        <v>-5</v>
       </c>
       <c r="J126" s="3">
-        <v>423.06</v>
+        <v>83.320000000000007</v>
       </c>
       <c r="K126" s="3">
-        <v>423.06</v>
+        <v>83.320000000000007</v>
       </c>
       <c r="L126" t="s">
         <v>15</v>
       </c>
       <c r="M126" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>211111630</v>
+        <v>211111879</v>
       </c>
       <c r="B127" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C127" t="s">
         <v>16</v>
@@ -5828,39 +5825,39 @@
         <v>17</v>
       </c>
       <c r="E127">
-        <v>12434</v>
+        <v>13527</v>
       </c>
       <c r="F127" t="s">
         <v>14</v>
       </c>
       <c r="G127" s="1">
-        <v>45928.427835648145</v>
+        <v>45961.36482638889</v>
       </c>
       <c r="H127" s="1">
-        <v>45898.427847222221</v>
+        <v>45931.365243055552</v>
       </c>
       <c r="I127" s="2">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="J127" s="3">
-        <v>536.85</v>
+        <v>43.85</v>
       </c>
       <c r="K127" s="3">
-        <v>536.85</v>
+        <v>43.85</v>
       </c>
       <c r="L127" t="s">
         <v>15</v>
       </c>
       <c r="M127" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>211111656</v>
+        <v>211111879</v>
       </c>
       <c r="B128" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C128" t="s">
         <v>16</v>
@@ -5869,25 +5866,25 @@
         <v>17</v>
       </c>
       <c r="E128">
-        <v>14083</v>
+        <v>13884</v>
       </c>
       <c r="F128" t="s">
         <v>14</v>
       </c>
       <c r="G128" s="1">
-        <v>45977.284409722219</v>
+        <v>45969</v>
       </c>
       <c r="H128" s="1">
-        <v>45947.285104166665</v>
+        <v>45940.377222222218</v>
       </c>
       <c r="I128" s="2">
-        <v>-23</v>
+        <v>-5</v>
       </c>
       <c r="J128" s="3">
-        <v>309.42</v>
+        <v>44.62</v>
       </c>
       <c r="K128" s="3">
-        <v>309.42</v>
+        <v>44.62</v>
       </c>
       <c r="L128" t="s">
         <v>15</v>
@@ -5898,7 +5895,7 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>211111850</v>
+        <v>211111879</v>
       </c>
       <c r="B129" t="s">
         <v>47</v>
@@ -5910,7 +5907,7 @@
         <v>17</v>
       </c>
       <c r="E129">
-        <v>13900</v>
+        <v>14319</v>
       </c>
       <c r="F129" t="s">
         <v>14</v>
@@ -5919,16 +5916,16 @@
         <v>45969</v>
       </c>
       <c r="H129" s="1">
-        <v>45940.422523148147</v>
+        <v>45954.356053240735</v>
       </c>
       <c r="I129" s="2">
-        <v>-15</v>
+        <v>-5</v>
       </c>
       <c r="J129" s="3">
-        <v>65.150000000000006</v>
+        <v>55.36</v>
       </c>
       <c r="K129" s="3">
-        <v>65.150000000000006</v>
+        <v>55.36</v>
       </c>
       <c r="L129" t="s">
         <v>15</v>
@@ -5939,10 +5936,10 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>211111850</v>
+        <v>211111888</v>
       </c>
       <c r="B130" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C130" t="s">
         <v>16</v>
@@ -5951,39 +5948,39 @@
         <v>17</v>
       </c>
       <c r="E130">
-        <v>14171</v>
+        <v>10477</v>
       </c>
       <c r="F130" t="s">
         <v>14</v>
       </c>
       <c r="G130" s="1">
-        <v>45969</v>
+        <v>45879.432314814811</v>
       </c>
       <c r="H130" s="1">
-        <v>45951.353437500002</v>
+        <v>45849.432314814811</v>
       </c>
       <c r="I130" s="2">
-        <v>-15</v>
+        <v>85</v>
       </c>
       <c r="J130" s="3">
-        <v>83.320000000000007</v>
+        <v>165.06</v>
       </c>
       <c r="K130" s="3">
-        <v>83.320000000000007</v>
+        <v>107.06</v>
       </c>
       <c r="L130" t="s">
         <v>15</v>
       </c>
       <c r="M130" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>211111879</v>
+        <v>211111888</v>
       </c>
       <c r="B131" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C131" t="s">
         <v>16</v>
@@ -5992,39 +5989,39 @@
         <v>17</v>
       </c>
       <c r="E131">
-        <v>13527</v>
+        <v>10508</v>
       </c>
       <c r="F131" t="s">
         <v>14</v>
       </c>
       <c r="G131" s="1">
-        <v>45961.36482638889</v>
+        <v>45882.471365740741</v>
       </c>
       <c r="H131" s="1">
-        <v>45931.365243055552</v>
+        <v>45852.471365740741</v>
       </c>
       <c r="I131" s="2">
-        <v>-7</v>
+        <v>82</v>
       </c>
       <c r="J131" s="3">
-        <v>43.85</v>
+        <v>110.59</v>
       </c>
       <c r="K131" s="3">
-        <v>43.85</v>
+        <v>110.59</v>
       </c>
       <c r="L131" t="s">
         <v>15</v>
       </c>
       <c r="M131" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>211111879</v>
+        <v>211111888</v>
       </c>
       <c r="B132" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C132" t="s">
         <v>16</v>
@@ -6033,39 +6030,39 @@
         <v>17</v>
       </c>
       <c r="E132">
-        <v>13884</v>
+        <v>10519</v>
       </c>
       <c r="F132" t="s">
         <v>14</v>
       </c>
       <c r="G132" s="1">
-        <v>45969</v>
+        <v>45882.479282407403</v>
       </c>
       <c r="H132" s="1">
-        <v>45940.377222222218</v>
+        <v>45852.479282407403</v>
       </c>
       <c r="I132" s="2">
-        <v>-15</v>
+        <v>82</v>
       </c>
       <c r="J132" s="3">
-        <v>44.62</v>
+        <v>439.56</v>
       </c>
       <c r="K132" s="3">
-        <v>44.62</v>
+        <v>439.56</v>
       </c>
       <c r="L132" t="s">
         <v>15</v>
       </c>
       <c r="M132" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>211111879</v>
+        <v>211111888</v>
       </c>
       <c r="B133" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C133" t="s">
         <v>16</v>
@@ -6074,31 +6071,31 @@
         <v>17</v>
       </c>
       <c r="E133">
-        <v>14319</v>
+        <v>10626</v>
       </c>
       <c r="F133" t="s">
         <v>14</v>
       </c>
       <c r="G133" s="1">
-        <v>45969</v>
+        <v>45884.449004629627</v>
       </c>
       <c r="H133" s="1">
-        <v>45954.356053240735</v>
+        <v>45854.449004629627</v>
       </c>
       <c r="I133" s="2">
-        <v>-15</v>
+        <v>80</v>
       </c>
       <c r="J133" s="3">
-        <v>55.36</v>
+        <v>49.69</v>
       </c>
       <c r="K133" s="3">
-        <v>55.36</v>
+        <v>49.69</v>
       </c>
       <c r="L133" t="s">
         <v>15</v>
       </c>
       <c r="M133" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
@@ -6115,25 +6112,25 @@
         <v>17</v>
       </c>
       <c r="E134">
-        <v>10419</v>
+        <v>10811</v>
       </c>
       <c r="F134" t="s">
         <v>14</v>
       </c>
       <c r="G134" s="1">
-        <v>45878.429652777777</v>
+        <v>45889.48296296296</v>
       </c>
       <c r="H134" s="1">
-        <v>45848.429652777777</v>
+        <v>45859.48296296296</v>
       </c>
       <c r="I134" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J134" s="3">
-        <v>540.54999999999995</v>
+        <v>481.88</v>
       </c>
       <c r="K134" s="3">
-        <v>392</v>
+        <v>481.88</v>
       </c>
       <c r="L134" t="s">
         <v>15</v>
@@ -6150,31 +6147,31 @@
         <v>30</v>
       </c>
       <c r="C135" t="s">
-        <v>16</v>
-      </c>
-      <c r="D135" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="D135">
+        <v>2025</v>
       </c>
       <c r="E135">
-        <v>10477</v>
+        <v>666</v>
       </c>
       <c r="F135" t="s">
         <v>14</v>
       </c>
       <c r="G135" s="1">
-        <v>45879.432314814811</v>
+        <v>45891</v>
       </c>
       <c r="H135" s="1">
-        <v>45849.432314814811</v>
+        <v>45861</v>
       </c>
       <c r="I135" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J135" s="3">
-        <v>165.06</v>
+        <v>-359.47</v>
       </c>
       <c r="K135" s="3">
-        <v>165.06</v>
+        <v>-359.47</v>
       </c>
       <c r="L135" t="s">
         <v>15</v>
@@ -6191,31 +6188,31 @@
         <v>30</v>
       </c>
       <c r="C136" t="s">
-        <v>16</v>
-      </c>
-      <c r="D136" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="D136">
+        <v>2025</v>
       </c>
       <c r="E136">
-        <v>10508</v>
+        <v>679</v>
       </c>
       <c r="F136" t="s">
         <v>14</v>
       </c>
       <c r="G136" s="1">
-        <v>45882.471365740741</v>
+        <v>45892</v>
       </c>
       <c r="H136" s="1">
-        <v>45852.471365740741</v>
+        <v>45862</v>
       </c>
       <c r="I136" s="2">
         <v>72</v>
       </c>
       <c r="J136" s="3">
-        <v>110.59</v>
+        <v>-11.61</v>
       </c>
       <c r="K136" s="3">
-        <v>110.59</v>
+        <v>-11.61</v>
       </c>
       <c r="L136" t="s">
         <v>15</v>
@@ -6238,25 +6235,25 @@
         <v>17</v>
       </c>
       <c r="E137">
-        <v>10519</v>
+        <v>10999</v>
       </c>
       <c r="F137" t="s">
         <v>14</v>
       </c>
       <c r="G137" s="1">
-        <v>45882.479282407403</v>
+        <v>45892.498240740737</v>
       </c>
       <c r="H137" s="1">
-        <v>45852.479282407403</v>
+        <v>45862.498240740737</v>
       </c>
       <c r="I137" s="2">
         <v>72</v>
       </c>
       <c r="J137" s="3">
-        <v>439.56</v>
+        <v>134.38</v>
       </c>
       <c r="K137" s="3">
-        <v>439.56</v>
+        <v>134.38</v>
       </c>
       <c r="L137" t="s">
         <v>15</v>
@@ -6279,25 +6276,25 @@
         <v>17</v>
       </c>
       <c r="E138">
-        <v>10626</v>
+        <v>11123</v>
       </c>
       <c r="F138" t="s">
         <v>14</v>
       </c>
       <c r="G138" s="1">
-        <v>45884.449004629627</v>
+        <v>45896.546006944445</v>
       </c>
       <c r="H138" s="1">
-        <v>45854.449004629627</v>
+        <v>45866.547673611109</v>
       </c>
       <c r="I138" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J138" s="3">
-        <v>49.69</v>
+        <v>727.73</v>
       </c>
       <c r="K138" s="3">
-        <v>49.69</v>
+        <v>727.73</v>
       </c>
       <c r="L138" t="s">
         <v>15</v>
@@ -6314,31 +6311,31 @@
         <v>30</v>
       </c>
       <c r="C139" t="s">
-        <v>16</v>
-      </c>
-      <c r="D139" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="D139">
+        <v>2025</v>
       </c>
       <c r="E139">
-        <v>10811</v>
+        <v>713</v>
       </c>
       <c r="F139" t="s">
         <v>14</v>
       </c>
       <c r="G139" s="1">
-        <v>45889.48296296296</v>
+        <v>45900</v>
       </c>
       <c r="H139" s="1">
-        <v>45859.48296296296</v>
+        <v>45870</v>
       </c>
       <c r="I139" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J139" s="3">
-        <v>481.88</v>
+        <v>-15.39</v>
       </c>
       <c r="K139" s="3">
-        <v>481.88</v>
+        <v>-15.39</v>
       </c>
       <c r="L139" t="s">
         <v>15</v>
@@ -6355,31 +6352,31 @@
         <v>30</v>
       </c>
       <c r="C140" t="s">
-        <v>13</v>
-      </c>
-      <c r="D140">
-        <v>2025</v>
+        <v>16</v>
+      </c>
+      <c r="D140" t="s">
+        <v>17</v>
       </c>
       <c r="E140">
-        <v>666</v>
+        <v>11344</v>
       </c>
       <c r="F140" t="s">
         <v>14</v>
       </c>
       <c r="G140" s="1">
-        <v>45891</v>
+        <v>45900.516886574071</v>
       </c>
       <c r="H140" s="1">
-        <v>45861</v>
+        <v>45870.516898148147</v>
       </c>
       <c r="I140" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J140" s="3">
-        <v>-359.47</v>
+        <v>741.32</v>
       </c>
       <c r="K140" s="3">
-        <v>-359.47</v>
+        <v>741.32</v>
       </c>
       <c r="L140" t="s">
         <v>15</v>
@@ -6396,37 +6393,37 @@
         <v>30</v>
       </c>
       <c r="C141" t="s">
-        <v>13</v>
-      </c>
-      <c r="D141">
-        <v>2025</v>
+        <v>16</v>
+      </c>
+      <c r="D141" t="s">
+        <v>17</v>
       </c>
       <c r="E141">
-        <v>679</v>
+        <v>11446</v>
       </c>
       <c r="F141" t="s">
         <v>14</v>
       </c>
       <c r="G141" s="1">
-        <v>45892</v>
+        <v>45904.531446759254</v>
       </c>
       <c r="H141" s="1">
-        <v>45862</v>
+        <v>45874.531446759254</v>
       </c>
       <c r="I141" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J141" s="3">
-        <v>-11.61</v>
+        <v>49.82</v>
       </c>
       <c r="K141" s="3">
-        <v>-11.61</v>
+        <v>49.82</v>
       </c>
       <c r="L141" t="s">
         <v>15</v>
       </c>
       <c r="M141" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -6443,31 +6440,31 @@
         <v>17</v>
       </c>
       <c r="E142">
-        <v>10999</v>
+        <v>11547</v>
       </c>
       <c r="F142" t="s">
         <v>14</v>
       </c>
       <c r="G142" s="1">
-        <v>45892.498240740737</v>
+        <v>45905.643067129626</v>
       </c>
       <c r="H142" s="1">
-        <v>45862.498240740737</v>
+        <v>45875.643437499995</v>
       </c>
       <c r="I142" s="2">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J142" s="3">
-        <v>134.38</v>
+        <v>699.11</v>
       </c>
       <c r="K142" s="3">
-        <v>134.38</v>
+        <v>699.11</v>
       </c>
       <c r="L142" t="s">
         <v>15</v>
       </c>
       <c r="M142" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -6484,25 +6481,25 @@
         <v>17</v>
       </c>
       <c r="E143">
-        <v>11123</v>
+        <v>11552</v>
       </c>
       <c r="F143" t="s">
         <v>14</v>
       </c>
       <c r="G143" s="1">
-        <v>45896.546006944445</v>
+        <v>45906.357638888891</v>
       </c>
       <c r="H143" s="1">
-        <v>45866.547673611109</v>
+        <v>45876.35765046296</v>
       </c>
       <c r="I143" s="2">
         <v>58</v>
       </c>
       <c r="J143" s="3">
-        <v>727.73</v>
+        <v>179.12</v>
       </c>
       <c r="K143" s="3">
-        <v>727.73</v>
+        <v>179.12</v>
       </c>
       <c r="L143" t="s">
         <v>15</v>
@@ -6519,31 +6516,31 @@
         <v>30</v>
       </c>
       <c r="C144" t="s">
-        <v>13</v>
-      </c>
-      <c r="D144">
-        <v>2025</v>
+        <v>16</v>
+      </c>
+      <c r="D144" t="s">
+        <v>17</v>
       </c>
       <c r="E144">
-        <v>713</v>
+        <v>11660</v>
       </c>
       <c r="F144" t="s">
         <v>14</v>
       </c>
       <c r="G144" s="1">
-        <v>45900</v>
+        <v>45907.602372685185</v>
       </c>
       <c r="H144" s="1">
-        <v>45870</v>
+        <v>45877.602372685185</v>
       </c>
       <c r="I144" s="2">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J144" s="3">
-        <v>-15.39</v>
+        <v>81.33</v>
       </c>
       <c r="K144" s="3">
-        <v>-15.39</v>
+        <v>81.33</v>
       </c>
       <c r="L144" t="s">
         <v>15</v>
@@ -6566,25 +6563,25 @@
         <v>17</v>
       </c>
       <c r="E145">
-        <v>11344</v>
+        <v>11718</v>
       </c>
       <c r="F145" t="s">
         <v>14</v>
       </c>
       <c r="G145" s="1">
-        <v>45900.516886574071</v>
+        <v>45910.541782407403</v>
       </c>
       <c r="H145" s="1">
-        <v>45870.516898148147</v>
+        <v>45880.54179398148</v>
       </c>
       <c r="I145" s="2">
         <v>54</v>
       </c>
       <c r="J145" s="3">
-        <v>741.32</v>
+        <v>119.29</v>
       </c>
       <c r="K145" s="3">
-        <v>741.32</v>
+        <v>119.29</v>
       </c>
       <c r="L145" t="s">
         <v>15</v>
@@ -6607,25 +6604,25 @@
         <v>17</v>
       </c>
       <c r="E146">
-        <v>11446</v>
+        <v>12039</v>
       </c>
       <c r="F146" t="s">
         <v>14</v>
       </c>
       <c r="G146" s="1">
-        <v>45904.531446759254</v>
+        <v>45919.406863425924</v>
       </c>
       <c r="H146" s="1">
-        <v>45874.531446759254</v>
+        <v>45889.407824074071</v>
       </c>
       <c r="I146" s="2">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="J146" s="3">
-        <v>49.82</v>
+        <v>156.55000000000001</v>
       </c>
       <c r="K146" s="3">
-        <v>49.82</v>
+        <v>156.55000000000001</v>
       </c>
       <c r="L146" t="s">
         <v>15</v>
@@ -6648,25 +6645,25 @@
         <v>17</v>
       </c>
       <c r="E147">
-        <v>11547</v>
+        <v>12077</v>
       </c>
       <c r="F147" t="s">
         <v>14</v>
       </c>
       <c r="G147" s="1">
-        <v>45905.643067129626</v>
+        <v>45919.572557870371</v>
       </c>
       <c r="H147" s="1">
-        <v>45875.643437499995</v>
+        <v>45889.572569444441</v>
       </c>
       <c r="I147" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J147" s="3">
-        <v>699.11</v>
+        <v>242.01</v>
       </c>
       <c r="K147" s="3">
-        <v>699.11</v>
+        <v>242.01</v>
       </c>
       <c r="L147" t="s">
         <v>15</v>
@@ -6689,25 +6686,25 @@
         <v>17</v>
       </c>
       <c r="E148">
-        <v>11552</v>
+        <v>12212</v>
       </c>
       <c r="F148" t="s">
         <v>14</v>
       </c>
       <c r="G148" s="1">
-        <v>45906.357638888891</v>
+        <v>45921.610219907408</v>
       </c>
       <c r="H148" s="1">
-        <v>45876.35765046296</v>
+        <v>45891.614027777774</v>
       </c>
       <c r="I148" s="2">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J148" s="3">
-        <v>179.12</v>
+        <v>101</v>
       </c>
       <c r="K148" s="3">
-        <v>179.12</v>
+        <v>101</v>
       </c>
       <c r="L148" t="s">
         <v>15</v>
@@ -6730,25 +6727,25 @@
         <v>17</v>
       </c>
       <c r="E149">
-        <v>11660</v>
+        <v>12251</v>
       </c>
       <c r="F149" t="s">
         <v>14</v>
       </c>
       <c r="G149" s="1">
-        <v>45907.602372685185</v>
+        <v>45925.350347222222</v>
       </c>
       <c r="H149" s="1">
-        <v>45877.602372685185</v>
+        <v>45895.350358796291</v>
       </c>
       <c r="I149" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J149" s="3">
-        <v>81.33</v>
+        <v>153.34</v>
       </c>
       <c r="K149" s="3">
-        <v>81.33</v>
+        <v>153.34</v>
       </c>
       <c r="L149" t="s">
         <v>15</v>
@@ -6765,37 +6762,37 @@
         <v>30</v>
       </c>
       <c r="C150" t="s">
-        <v>16</v>
-      </c>
-      <c r="D150" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="D150">
+        <v>2025</v>
       </c>
       <c r="E150">
-        <v>11718</v>
+        <v>842</v>
       </c>
       <c r="F150" t="s">
         <v>14</v>
       </c>
       <c r="G150" s="1">
-        <v>45910.541782407403</v>
+        <v>45935</v>
       </c>
       <c r="H150" s="1">
-        <v>45880.54179398148</v>
+        <v>45905</v>
       </c>
       <c r="I150" s="2">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="J150" s="3">
-        <v>119.29</v>
+        <v>-699.11</v>
       </c>
       <c r="K150" s="3">
-        <v>119.29</v>
+        <v>-699.11</v>
       </c>
       <c r="L150" t="s">
         <v>15</v>
       </c>
       <c r="M150" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -6812,80 +6809,80 @@
         <v>17</v>
       </c>
       <c r="E151">
-        <v>12039</v>
+        <v>12751</v>
       </c>
       <c r="F151" t="s">
         <v>14</v>
       </c>
       <c r="G151" s="1">
-        <v>45919.406863425924</v>
+        <v>45939.4605787037</v>
       </c>
       <c r="H151" s="1">
-        <v>45889.407824074071</v>
+        <v>45909.4605787037</v>
       </c>
       <c r="I151" s="2">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="J151" s="3">
-        <v>156.55000000000001</v>
+        <v>399.14</v>
       </c>
       <c r="K151" s="3">
-        <v>156.55000000000001</v>
+        <v>399.14</v>
       </c>
       <c r="L151" t="s">
         <v>15</v>
       </c>
       <c r="M151" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>211111888</v>
+        <v>211111895</v>
       </c>
       <c r="B152" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C152" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D152" t="s">
         <v>17</v>
       </c>
       <c r="E152">
-        <v>12077</v>
+        <v>576</v>
       </c>
       <c r="F152" t="s">
         <v>14</v>
       </c>
       <c r="G152" s="1">
-        <v>45919.572557870371</v>
+        <v>45946</v>
       </c>
       <c r="H152" s="1">
-        <v>45889.572569444441</v>
+        <v>45916</v>
       </c>
       <c r="I152" s="2">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="J152" s="3">
-        <v>242.01</v>
+        <v>-2.62</v>
       </c>
       <c r="K152" s="3">
-        <v>242.01</v>
+        <v>-2.62</v>
       </c>
       <c r="L152" t="s">
         <v>15</v>
       </c>
       <c r="M152" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>211111888</v>
+        <v>211111895</v>
       </c>
       <c r="B153" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C153" t="s">
         <v>16</v>
@@ -6894,39 +6891,39 @@
         <v>17</v>
       </c>
       <c r="E153">
-        <v>12212</v>
+        <v>14169</v>
       </c>
       <c r="F153" t="s">
         <v>14</v>
       </c>
       <c r="G153" s="1">
-        <v>45921.610219907408</v>
+        <v>45981.351319444446</v>
       </c>
       <c r="H153" s="1">
-        <v>45891.614027777774</v>
+        <v>45951.352407407408</v>
       </c>
       <c r="I153" s="2">
-        <v>33</v>
+        <v>-17</v>
       </c>
       <c r="J153" s="3">
-        <v>101</v>
+        <v>42.08</v>
       </c>
       <c r="K153" s="3">
-        <v>101</v>
+        <v>42.08</v>
       </c>
       <c r="L153" t="s">
         <v>15</v>
       </c>
       <c r="M153" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>211111888</v>
+        <v>211111895</v>
       </c>
       <c r="B154" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C154" t="s">
         <v>16</v>
@@ -6935,80 +6932,80 @@
         <v>17</v>
       </c>
       <c r="E154">
-        <v>12251</v>
+        <v>14524</v>
       </c>
       <c r="F154" t="s">
         <v>14</v>
       </c>
       <c r="G154" s="1">
-        <v>45925.350347222222</v>
+        <v>45991.356736111113</v>
       </c>
       <c r="H154" s="1">
-        <v>45895.350358796291</v>
+        <v>45961.357164351852</v>
       </c>
       <c r="I154" s="2">
-        <v>29</v>
+        <v>-27</v>
       </c>
       <c r="J154" s="3">
-        <v>153.34</v>
+        <v>24.54</v>
       </c>
       <c r="K154" s="3">
-        <v>153.34</v>
+        <v>24.54</v>
       </c>
       <c r="L154" t="s">
         <v>15</v>
       </c>
       <c r="M154" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>211111888</v>
+        <v>211111898</v>
       </c>
       <c r="B155" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="C155" t="s">
-        <v>13</v>
-      </c>
-      <c r="D155">
-        <v>2025</v>
+        <v>16</v>
+      </c>
+      <c r="D155" t="s">
+        <v>17</v>
       </c>
       <c r="E155">
-        <v>842</v>
+        <v>14527</v>
       </c>
       <c r="F155" t="s">
         <v>14</v>
       </c>
       <c r="G155" s="1">
-        <v>45935</v>
+        <v>45991.362708333334</v>
       </c>
       <c r="H155" s="1">
-        <v>45905</v>
+        <v>45961.363391203704</v>
       </c>
       <c r="I155" s="2">
-        <v>19</v>
+        <v>-27</v>
       </c>
       <c r="J155" s="3">
-        <v>-699.11</v>
+        <v>115.88</v>
       </c>
       <c r="K155" s="3">
-        <v>-699.11</v>
+        <v>115.88</v>
       </c>
       <c r="L155" t="s">
         <v>15</v>
       </c>
       <c r="M155" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>211111888</v>
+        <v>211111920</v>
       </c>
       <c r="B156" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C156" t="s">
         <v>16</v>
@@ -7017,80 +7014,80 @@
         <v>17</v>
       </c>
       <c r="E156">
-        <v>12751</v>
+        <v>14172</v>
       </c>
       <c r="F156" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G156" s="1">
-        <v>45939.4605787037</v>
+        <v>45981.353587962964</v>
       </c>
       <c r="H156" s="1">
-        <v>45909.4605787037</v>
+        <v>45951.353819444441</v>
       </c>
       <c r="I156" s="2">
-        <v>15</v>
+        <v>-17</v>
       </c>
       <c r="J156" s="3">
-        <v>399.14</v>
+        <v>226.82</v>
       </c>
       <c r="K156" s="3">
-        <v>399.14</v>
+        <v>226.82</v>
       </c>
       <c r="L156" t="s">
         <v>15</v>
       </c>
       <c r="M156" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>211111895</v>
+        <v>211111920</v>
       </c>
       <c r="B157" t="s">
         <v>49</v>
       </c>
       <c r="C157" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D157" t="s">
         <v>17</v>
       </c>
       <c r="E157">
-        <v>576</v>
+        <v>14391</v>
       </c>
       <c r="F157" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G157" s="1">
-        <v>45946</v>
+        <v>45988.360949074071</v>
       </c>
       <c r="H157" s="1">
-        <v>45916</v>
+        <v>45958.361342592594</v>
       </c>
       <c r="I157" s="2">
-        <v>8</v>
+        <v>-24</v>
       </c>
       <c r="J157" s="3">
-        <v>-2.62</v>
+        <v>164.14000000000001</v>
       </c>
       <c r="K157" s="3">
-        <v>-2.62</v>
+        <v>164.14000000000001</v>
       </c>
       <c r="L157" t="s">
         <v>15</v>
       </c>
       <c r="M157" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>211111895</v>
+        <v>211111957</v>
       </c>
       <c r="B158" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C158" t="s">
         <v>16</v>
@@ -7099,39 +7096,39 @@
         <v>17</v>
       </c>
       <c r="E158">
-        <v>14169</v>
+        <v>11907</v>
       </c>
       <c r="F158" t="s">
         <v>14</v>
       </c>
       <c r="G158" s="1">
-        <v>45981.351319444446</v>
+        <v>45913.559351851851</v>
       </c>
       <c r="H158" s="1">
-        <v>45951.352407407408</v>
+        <v>45883.559351851851</v>
       </c>
       <c r="I158" s="2">
-        <v>-27</v>
+        <v>51</v>
       </c>
       <c r="J158" s="3">
-        <v>42.08</v>
+        <v>75.5</v>
       </c>
       <c r="K158" s="3">
-        <v>42.08</v>
+        <v>75.5</v>
       </c>
       <c r="L158" t="s">
         <v>15</v>
       </c>
       <c r="M158" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>211111898</v>
+        <v>211111957</v>
       </c>
       <c r="B159" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="C159" t="s">
         <v>16</v>
@@ -7140,39 +7137,39 @@
         <v>17</v>
       </c>
       <c r="E159">
-        <v>13634</v>
+        <v>12187</v>
       </c>
       <c r="F159" t="s">
         <v>14</v>
       </c>
       <c r="G159" s="1">
-        <v>45933.368206018517</v>
+        <v>45921.438784722217</v>
       </c>
       <c r="H159" s="1">
-        <v>45933.368206018517</v>
+        <v>45891.438784722217</v>
       </c>
       <c r="I159" s="2">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="J159" s="3">
-        <v>45.01</v>
+        <v>141.36000000000001</v>
       </c>
       <c r="K159" s="3">
-        <v>45.01</v>
+        <v>141.36000000000001</v>
       </c>
       <c r="L159" t="s">
         <v>15</v>
       </c>
       <c r="M159" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>211111920</v>
+        <v>211111957</v>
       </c>
       <c r="B160" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C160" t="s">
         <v>16</v>
@@ -7181,25 +7178,25 @@
         <v>17</v>
       </c>
       <c r="E160">
-        <v>14172</v>
+        <v>14186</v>
       </c>
       <c r="F160" t="s">
         <v>14</v>
       </c>
       <c r="G160" s="1">
-        <v>45981.353587962964</v>
+        <v>45981.389537037037</v>
       </c>
       <c r="H160" s="1">
-        <v>45951.353819444441</v>
+        <v>45951.39063657407</v>
       </c>
       <c r="I160" s="2">
-        <v>-27</v>
+        <v>-17</v>
       </c>
       <c r="J160" s="3">
-        <v>226.82</v>
+        <v>140.18</v>
       </c>
       <c r="K160" s="3">
-        <v>226.82</v>
+        <v>140.18</v>
       </c>
       <c r="L160" t="s">
         <v>15</v>
@@ -7210,37 +7207,37 @@
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>211111949</v>
+        <v>211111957</v>
       </c>
       <c r="B161" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="C161" t="s">
-        <v>16</v>
-      </c>
-      <c r="D161" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="D161">
+        <v>2025</v>
       </c>
       <c r="E161">
-        <v>14110</v>
+        <v>959</v>
       </c>
       <c r="F161" t="s">
         <v>14</v>
       </c>
       <c r="G161" s="1">
-        <v>45977.38726851852</v>
+        <v>45982</v>
       </c>
       <c r="H161" s="1">
-        <v>45947.387627314813</v>
+        <v>45952</v>
       </c>
       <c r="I161" s="2">
-        <v>-23</v>
+        <v>-18</v>
       </c>
       <c r="J161" s="3">
-        <v>86.460000000000008</v>
+        <v>-30.150000000000002</v>
       </c>
       <c r="K161" s="3">
-        <v>86.460000000000008</v>
+        <v>-30.150000000000002</v>
       </c>
       <c r="L161" t="s">
         <v>15</v>
@@ -7251,37 +7248,37 @@
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>211111949</v>
+        <v>211111957</v>
       </c>
       <c r="B162" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="C162" t="s">
-        <v>16</v>
-      </c>
-      <c r="D162" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="D162">
+        <v>2025</v>
       </c>
       <c r="E162">
-        <v>14175</v>
+        <v>962</v>
       </c>
       <c r="F162" t="s">
         <v>14</v>
       </c>
       <c r="G162" s="1">
-        <v>45981.355312499996</v>
+        <v>45982</v>
       </c>
       <c r="H162" s="1">
-        <v>45951.355509259258</v>
+        <v>45952</v>
       </c>
       <c r="I162" s="2">
-        <v>-27</v>
+        <v>-18</v>
       </c>
       <c r="J162" s="3">
-        <v>212.4</v>
+        <v>-36.64</v>
       </c>
       <c r="K162" s="3">
-        <v>212.4</v>
+        <v>-36.64</v>
       </c>
       <c r="L162" t="s">
         <v>15</v>
@@ -7292,37 +7289,37 @@
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>211111949</v>
+        <v>211111957</v>
       </c>
       <c r="B163" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="C163" t="s">
-        <v>16</v>
-      </c>
-      <c r="D163" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="D163">
+        <v>2025</v>
       </c>
       <c r="E163">
-        <v>14335</v>
+        <v>964</v>
       </c>
       <c r="F163" t="s">
         <v>14</v>
       </c>
       <c r="G163" s="1">
-        <v>45984.374062499999</v>
+        <v>45982</v>
       </c>
       <c r="H163" s="1">
-        <v>45954.374421296292</v>
+        <v>45952</v>
       </c>
       <c r="I163" s="2">
-        <v>-30</v>
+        <v>-18</v>
       </c>
       <c r="J163" s="3">
-        <v>118.61</v>
+        <v>-84.39</v>
       </c>
       <c r="K163" s="3">
-        <v>118.61</v>
+        <v>-84.39</v>
       </c>
       <c r="L163" t="s">
         <v>15</v>
@@ -7333,10 +7330,10 @@
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>211111957</v>
+        <v>211111998</v>
       </c>
       <c r="B164" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="C164" t="s">
         <v>16</v>
@@ -7345,39 +7342,39 @@
         <v>17</v>
       </c>
       <c r="E164">
-        <v>11907</v>
+        <v>13393</v>
       </c>
       <c r="F164" t="s">
         <v>14</v>
       </c>
       <c r="G164" s="1">
-        <v>45913.559351851851</v>
+        <v>45956.353229166663</v>
       </c>
       <c r="H164" s="1">
-        <v>45883.559351851851</v>
+        <v>45926.35361111111</v>
       </c>
       <c r="I164" s="2">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="J164" s="3">
-        <v>75.5</v>
+        <v>57.29</v>
       </c>
       <c r="K164" s="3">
-        <v>75.5</v>
+        <v>57.29</v>
       </c>
       <c r="L164" t="s">
         <v>15</v>
       </c>
       <c r="M164" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>211111957</v>
+        <v>211111998</v>
       </c>
       <c r="B165" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="C165" t="s">
         <v>16</v>
@@ -7386,39 +7383,39 @@
         <v>17</v>
       </c>
       <c r="E165">
-        <v>12187</v>
+        <v>13632</v>
       </c>
       <c r="F165" t="s">
         <v>14</v>
       </c>
       <c r="G165" s="1">
-        <v>45921.438784722217</v>
+        <v>45963.365949074076</v>
       </c>
       <c r="H165" s="1">
-        <v>45891.438784722217</v>
+        <v>45933.366597222222</v>
       </c>
       <c r="I165" s="2">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="J165" s="3">
-        <v>141.36000000000001</v>
+        <v>32.35</v>
       </c>
       <c r="K165" s="3">
-        <v>141.36000000000001</v>
+        <v>32.35</v>
       </c>
       <c r="L165" t="s">
         <v>15</v>
       </c>
       <c r="M165" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>211111957</v>
+        <v>211111998</v>
       </c>
       <c r="B166" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="C166" t="s">
         <v>16</v>
@@ -7427,25 +7424,25 @@
         <v>17</v>
       </c>
       <c r="E166">
-        <v>14186</v>
+        <v>13709</v>
       </c>
       <c r="F166" t="s">
         <v>14</v>
       </c>
       <c r="G166" s="1">
-        <v>45981.389537037037</v>
+        <v>45967.361539351848</v>
       </c>
       <c r="H166" s="1">
-        <v>45951.39063657407</v>
+        <v>45937.361840277779</v>
       </c>
       <c r="I166" s="2">
-        <v>-27</v>
+        <v>-3</v>
       </c>
       <c r="J166" s="3">
-        <v>140.18</v>
+        <v>92.63</v>
       </c>
       <c r="K166" s="3">
-        <v>140.18</v>
+        <v>92.63</v>
       </c>
       <c r="L166" t="s">
         <v>15</v>
@@ -7459,7 +7456,7 @@
         <v>211111998</v>
       </c>
       <c r="B167" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C167" t="s">
         <v>16</v>
@@ -7468,25 +7465,25 @@
         <v>17</v>
       </c>
       <c r="E167">
-        <v>13393</v>
+        <v>14084</v>
       </c>
       <c r="F167" t="s">
         <v>14</v>
       </c>
       <c r="G167" s="1">
-        <v>45956.353229166663</v>
+        <v>45977.320405092592</v>
       </c>
       <c r="H167" s="1">
-        <v>45926.35361111111</v>
+        <v>45947.321655092594</v>
       </c>
       <c r="I167" s="2">
-        <v>-2</v>
+        <v>-13</v>
       </c>
       <c r="J167" s="3">
-        <v>57.29</v>
+        <v>78.06</v>
       </c>
       <c r="K167" s="3">
-        <v>57.29</v>
+        <v>78.06</v>
       </c>
       <c r="L167" t="s">
         <v>15</v>
@@ -7500,7 +7497,7 @@
         <v>211111998</v>
       </c>
       <c r="B168" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C168" t="s">
         <v>16</v>
@@ -7509,25 +7506,25 @@
         <v>17</v>
       </c>
       <c r="E168">
-        <v>13632</v>
+        <v>14333</v>
       </c>
       <c r="F168" t="s">
         <v>14</v>
       </c>
       <c r="G168" s="1">
-        <v>45963.365949074076</v>
+        <v>45984.371111111112</v>
       </c>
       <c r="H168" s="1">
-        <v>45933.366597222222</v>
+        <v>45954.372986111106</v>
       </c>
       <c r="I168" s="2">
-        <v>-9</v>
+        <v>-20</v>
       </c>
       <c r="J168" s="3">
-        <v>32.35</v>
+        <v>100.36</v>
       </c>
       <c r="K168" s="3">
-        <v>32.35</v>
+        <v>100.36</v>
       </c>
       <c r="L168" t="s">
         <v>15</v>
@@ -7541,7 +7538,7 @@
         <v>211111998</v>
       </c>
       <c r="B169" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C169" t="s">
         <v>16</v>
@@ -7550,25 +7547,25 @@
         <v>17</v>
       </c>
       <c r="E169">
-        <v>13709</v>
+        <v>14532</v>
       </c>
       <c r="F169" t="s">
         <v>14</v>
       </c>
       <c r="G169" s="1">
-        <v>45967.361539351848</v>
+        <v>45991.369999999995</v>
       </c>
       <c r="H169" s="1">
-        <v>45937.361840277779</v>
+        <v>45961.370358796295</v>
       </c>
       <c r="I169" s="2">
-        <v>-13</v>
+        <v>-27</v>
       </c>
       <c r="J169" s="3">
-        <v>92.63</v>
+        <v>123.09</v>
       </c>
       <c r="K169" s="3">
-        <v>92.63</v>
+        <v>123.09</v>
       </c>
       <c r="L169" t="s">
         <v>15</v>
@@ -7579,10 +7576,10 @@
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>211111998</v>
+        <v>211112064</v>
       </c>
       <c r="B170" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C170" t="s">
         <v>16</v>
@@ -7591,25 +7588,25 @@
         <v>17</v>
       </c>
       <c r="E170">
-        <v>14084</v>
+        <v>14137</v>
       </c>
       <c r="F170" t="s">
         <v>14</v>
       </c>
       <c r="G170" s="1">
-        <v>45977.320405092592</v>
+        <v>45980.395914351851</v>
       </c>
       <c r="H170" s="1">
-        <v>45947.321655092594</v>
+        <v>45950.396481481483</v>
       </c>
       <c r="I170" s="2">
-        <v>-23</v>
+        <v>-16</v>
       </c>
       <c r="J170" s="3">
-        <v>78.06</v>
+        <v>18.78</v>
       </c>
       <c r="K170" s="3">
-        <v>78.06</v>
+        <v>18.78</v>
       </c>
       <c r="L170" t="s">
         <v>15</v>
@@ -7620,10 +7617,10 @@
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>211111998</v>
+        <v>211112090</v>
       </c>
       <c r="B171" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="C171" t="s">
         <v>16</v>
@@ -7632,25 +7629,25 @@
         <v>17</v>
       </c>
       <c r="E171">
-        <v>14333</v>
+        <v>14465</v>
       </c>
       <c r="F171" t="s">
         <v>14</v>
       </c>
       <c r="G171" s="1">
-        <v>45984.371111111112</v>
+        <v>45989.427245370367</v>
       </c>
       <c r="H171" s="1">
-        <v>45954.372986111106</v>
+        <v>45959.427569444444</v>
       </c>
       <c r="I171" s="2">
-        <v>-30</v>
+        <v>-25</v>
       </c>
       <c r="J171" s="3">
-        <v>100.36</v>
+        <v>103.46000000000001</v>
       </c>
       <c r="K171" s="3">
-        <v>100.36</v>
+        <v>103.46000000000001</v>
       </c>
       <c r="L171" t="s">
         <v>15</v>
@@ -7661,10 +7658,10 @@
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>211112064</v>
+        <v>211112092</v>
       </c>
       <c r="B172" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C172" t="s">
         <v>16</v>
@@ -7673,39 +7670,39 @@
         <v>17</v>
       </c>
       <c r="E172">
-        <v>13759</v>
+        <v>13518</v>
       </c>
       <c r="F172" t="s">
         <v>14</v>
       </c>
       <c r="G172" s="1">
-        <v>45968.340439814812</v>
+        <v>45961.359467592592</v>
       </c>
       <c r="H172" s="1">
-        <v>45938.340775462959</v>
+        <v>45931.359756944439</v>
       </c>
       <c r="I172" s="2">
-        <v>-14</v>
+        <v>3</v>
       </c>
       <c r="J172" s="3">
-        <v>17.400000000000002</v>
+        <v>45.5</v>
       </c>
       <c r="K172" s="3">
-        <v>17.400000000000002</v>
+        <v>45.5</v>
       </c>
       <c r="L172" t="s">
         <v>15</v>
       </c>
       <c r="M172" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>211112064</v>
+        <v>211112092</v>
       </c>
       <c r="B173" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C173" t="s">
         <v>16</v>
@@ -7714,25 +7711,25 @@
         <v>17</v>
       </c>
       <c r="E173">
-        <v>14137</v>
+        <v>13886</v>
       </c>
       <c r="F173" t="s">
         <v>14</v>
       </c>
       <c r="G173" s="1">
-        <v>45980.395914351851</v>
+        <v>45969</v>
       </c>
       <c r="H173" s="1">
-        <v>45950.396481481483</v>
+        <v>45940.378576388888</v>
       </c>
       <c r="I173" s="2">
-        <v>-26</v>
+        <v>-5</v>
       </c>
       <c r="J173" s="3">
-        <v>18.78</v>
+        <v>92.25</v>
       </c>
       <c r="K173" s="3">
-        <v>18.78</v>
+        <v>92.25</v>
       </c>
       <c r="L173" t="s">
         <v>15</v>
@@ -7746,7 +7743,7 @@
         <v>211112092</v>
       </c>
       <c r="B174" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C174" t="s">
         <v>16</v>
@@ -7755,25 +7752,25 @@
         <v>17</v>
       </c>
       <c r="E174">
-        <v>13518</v>
+        <v>14140</v>
       </c>
       <c r="F174" t="s">
         <v>14</v>
       </c>
       <c r="G174" s="1">
-        <v>45961.359467592592</v>
+        <v>45969</v>
       </c>
       <c r="H174" s="1">
-        <v>45931.359756944439</v>
+        <v>45950.41165509259</v>
       </c>
       <c r="I174" s="2">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="J174" s="3">
-        <v>45.5</v>
+        <v>109.14</v>
       </c>
       <c r="K174" s="3">
-        <v>45.5</v>
+        <v>109.14</v>
       </c>
       <c r="L174" t="s">
         <v>15</v>
@@ -7784,10 +7781,10 @@
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>211112092</v>
+        <v>211112100</v>
       </c>
       <c r="B175" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C175" t="s">
         <v>16</v>
@@ -7796,39 +7793,39 @@
         <v>17</v>
       </c>
       <c r="E175">
-        <v>13886</v>
+        <v>13657</v>
       </c>
       <c r="F175" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G175" s="1">
-        <v>45969</v>
+        <v>45963.650833333333</v>
       </c>
       <c r="H175" s="1">
-        <v>45940.378576388888</v>
+        <v>45933.65112268518</v>
       </c>
       <c r="I175" s="2">
-        <v>-15</v>
+        <v>1</v>
       </c>
       <c r="J175" s="3">
-        <v>92.25</v>
+        <v>71.040000000000006</v>
       </c>
       <c r="K175" s="3">
-        <v>92.25</v>
+        <v>71.040000000000006</v>
       </c>
       <c r="L175" t="s">
         <v>15</v>
       </c>
       <c r="M175" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>211112092</v>
+        <v>211112100</v>
       </c>
       <c r="B176" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C176" t="s">
         <v>16</v>
@@ -7837,25 +7834,25 @@
         <v>17</v>
       </c>
       <c r="E176">
-        <v>14140</v>
+        <v>13833</v>
       </c>
       <c r="F176" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G176" s="1">
-        <v>45969</v>
+        <v>45969.381342592591</v>
       </c>
       <c r="H176" s="1">
-        <v>45950.41165509259</v>
+        <v>45939.383344907408</v>
       </c>
       <c r="I176" s="2">
-        <v>-15</v>
+        <v>-5</v>
       </c>
       <c r="J176" s="3">
-        <v>109.14</v>
+        <v>35.25</v>
       </c>
       <c r="K176" s="3">
-        <v>109.14</v>
+        <v>35.25</v>
       </c>
       <c r="L176" t="s">
         <v>15</v>
@@ -7869,7 +7866,7 @@
         <v>211112100</v>
       </c>
       <c r="B177" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C177" t="s">
         <v>16</v>
@@ -7878,31 +7875,31 @@
         <v>17</v>
       </c>
       <c r="E177">
-        <v>13249</v>
+        <v>13888</v>
       </c>
       <c r="F177" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G177" s="1">
-        <v>45953.39261574074</v>
+        <v>45970.382719907408</v>
       </c>
       <c r="H177" s="1">
-        <v>45923.392951388887</v>
+        <v>45940.383113425924</v>
       </c>
       <c r="I177" s="2">
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="J177" s="3">
-        <v>144.45000000000002</v>
+        <v>35.39</v>
       </c>
       <c r="K177" s="3">
-        <v>144.45000000000002</v>
+        <v>35.39</v>
       </c>
       <c r="L177" t="s">
         <v>15</v>
       </c>
       <c r="M177" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
@@ -7910,7 +7907,7 @@
         <v>211112100</v>
       </c>
       <c r="B178" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C178" t="s">
         <v>16</v>
@@ -7919,25 +7916,25 @@
         <v>17</v>
       </c>
       <c r="E178">
-        <v>13657</v>
+        <v>13965</v>
       </c>
       <c r="F178" t="s">
         <v>14</v>
       </c>
       <c r="G178" s="1">
-        <v>45963.650833333333</v>
+        <v>45974.377233796295</v>
       </c>
       <c r="H178" s="1">
-        <v>45933.65112268518</v>
+        <v>45944.377569444441</v>
       </c>
       <c r="I178" s="2">
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="J178" s="3">
-        <v>71.040000000000006</v>
+        <v>321.07</v>
       </c>
       <c r="K178" s="3">
-        <v>71.040000000000006</v>
+        <v>321.07</v>
       </c>
       <c r="L178" t="s">
         <v>15</v>
@@ -7951,7 +7948,7 @@
         <v>211112100</v>
       </c>
       <c r="B179" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C179" t="s">
         <v>16</v>
@@ -7960,25 +7957,25 @@
         <v>17</v>
       </c>
       <c r="E179">
-        <v>13833</v>
+        <v>14188</v>
       </c>
       <c r="F179" t="s">
         <v>14</v>
       </c>
       <c r="G179" s="1">
-        <v>45969.381342592591</v>
+        <v>45981.391365740739</v>
       </c>
       <c r="H179" s="1">
-        <v>45939.383344907408</v>
+        <v>45951.392928240741</v>
       </c>
       <c r="I179" s="2">
-        <v>-15</v>
+        <v>-17</v>
       </c>
       <c r="J179" s="3">
-        <v>35.25</v>
+        <v>211.62</v>
       </c>
       <c r="K179" s="3">
-        <v>35.25</v>
+        <v>211.62</v>
       </c>
       <c r="L179" t="s">
         <v>15</v>
@@ -7989,10 +7986,10 @@
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>211112100</v>
+        <v>211112142</v>
       </c>
       <c r="B180" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C180" t="s">
         <v>16</v>
@@ -8001,25 +7998,25 @@
         <v>17</v>
       </c>
       <c r="E180">
-        <v>13888</v>
+        <v>13922</v>
       </c>
       <c r="F180" t="s">
         <v>14</v>
       </c>
       <c r="G180" s="1">
-        <v>45970.382719907408</v>
+        <v>45973.366701388884</v>
       </c>
       <c r="H180" s="1">
-        <v>45940.383113425924</v>
+        <v>45943.367048611108</v>
       </c>
       <c r="I180" s="2">
-        <v>-16</v>
+        <v>-9</v>
       </c>
       <c r="J180" s="3">
-        <v>35.39</v>
+        <v>174.46</v>
       </c>
       <c r="K180" s="3">
-        <v>35.39</v>
+        <v>174.46</v>
       </c>
       <c r="L180" t="s">
         <v>15</v>
@@ -8030,10 +8027,10 @@
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>211112100</v>
+        <v>211112145</v>
       </c>
       <c r="B181" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C181" t="s">
         <v>16</v>
@@ -8042,25 +8039,25 @@
         <v>17</v>
       </c>
       <c r="E181">
-        <v>13965</v>
+        <v>13949</v>
       </c>
       <c r="F181" t="s">
         <v>14</v>
       </c>
       <c r="G181" s="1">
-        <v>45974.377233796295</v>
+        <v>45974.344930555555</v>
       </c>
       <c r="H181" s="1">
-        <v>45944.377569444441</v>
+        <v>45944.348483796297</v>
       </c>
       <c r="I181" s="2">
-        <v>-20</v>
+        <v>-10</v>
       </c>
       <c r="J181" s="3">
-        <v>321.07</v>
+        <v>174.16</v>
       </c>
       <c r="K181" s="3">
-        <v>321.07</v>
+        <v>174.16</v>
       </c>
       <c r="L181" t="s">
         <v>15</v>
@@ -8071,10 +8068,10 @@
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>211112100</v>
+        <v>211112145</v>
       </c>
       <c r="B182" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C182" t="s">
         <v>16</v>
@@ -8083,25 +8080,25 @@
         <v>17</v>
       </c>
       <c r="E182">
-        <v>14188</v>
+        <v>14379</v>
       </c>
       <c r="F182" t="s">
         <v>14</v>
       </c>
       <c r="G182" s="1">
-        <v>45981.391365740739</v>
+        <v>45988.349965277775</v>
       </c>
       <c r="H182" s="1">
-        <v>45951.392928240741</v>
+        <v>45958.350775462961</v>
       </c>
       <c r="I182" s="2">
-        <v>-27</v>
+        <v>-24</v>
       </c>
       <c r="J182" s="3">
-        <v>211.62</v>
+        <v>108.3</v>
       </c>
       <c r="K182" s="3">
-        <v>211.62</v>
+        <v>108.3</v>
       </c>
       <c r="L182" t="s">
         <v>15</v>
@@ -8112,10 +8109,10 @@
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>211112142</v>
+        <v>211112147</v>
       </c>
       <c r="B183" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="C183" t="s">
         <v>16</v>
@@ -8124,39 +8121,39 @@
         <v>17</v>
       </c>
       <c r="E183">
-        <v>13922</v>
+        <v>10638</v>
       </c>
       <c r="F183" t="s">
         <v>14</v>
       </c>
       <c r="G183" s="1">
-        <v>45973.366701388884</v>
+        <v>45884.469155092593</v>
       </c>
       <c r="H183" s="1">
-        <v>45943.367048611108</v>
+        <v>45854.469155092593</v>
       </c>
       <c r="I183" s="2">
-        <v>-19</v>
+        <v>80</v>
       </c>
       <c r="J183" s="3">
-        <v>174.46</v>
+        <v>512.1</v>
       </c>
       <c r="K183" s="3">
-        <v>174.46</v>
+        <v>358.82</v>
       </c>
       <c r="L183" t="s">
         <v>15</v>
       </c>
       <c r="M183" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>211112145</v>
+        <v>211112147</v>
       </c>
       <c r="B184" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="C184" t="s">
         <v>16</v>
@@ -8165,31 +8162,31 @@
         <v>17</v>
       </c>
       <c r="E184">
-        <v>13949</v>
+        <v>10763</v>
       </c>
       <c r="F184" t="s">
         <v>14</v>
       </c>
       <c r="G184" s="1">
-        <v>45974.344930555555</v>
+        <v>45886.485254629624</v>
       </c>
       <c r="H184" s="1">
-        <v>45944.348483796297</v>
+        <v>45856.485266203701</v>
       </c>
       <c r="I184" s="2">
-        <v>-20</v>
+        <v>78</v>
       </c>
       <c r="J184" s="3">
-        <v>174.16</v>
+        <v>397.42</v>
       </c>
       <c r="K184" s="3">
-        <v>174.16</v>
+        <v>397.42</v>
       </c>
       <c r="L184" t="s">
         <v>15</v>
       </c>
       <c r="M184" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
@@ -8206,25 +8203,25 @@
         <v>17</v>
       </c>
       <c r="E185">
-        <v>10470</v>
+        <v>10816</v>
       </c>
       <c r="F185" t="s">
         <v>14</v>
       </c>
       <c r="G185" s="1">
-        <v>45879.406493055554</v>
+        <v>45889.487604166665</v>
       </c>
       <c r="H185" s="1">
-        <v>45849.406504629631</v>
+        <v>45859.487604166665</v>
       </c>
       <c r="I185" s="2">
         <v>75</v>
       </c>
       <c r="J185" s="3">
-        <v>1181.72</v>
+        <v>531.94000000000005</v>
       </c>
       <c r="K185" s="3">
-        <v>431.72</v>
+        <v>531.94000000000005</v>
       </c>
       <c r="L185" t="s">
         <v>15</v>
@@ -8247,25 +8244,25 @@
         <v>17</v>
       </c>
       <c r="E186">
-        <v>10638</v>
+        <v>11063</v>
       </c>
       <c r="F186" t="s">
         <v>14</v>
       </c>
       <c r="G186" s="1">
-        <v>45884.469155092593</v>
+        <v>45893.523298611108</v>
       </c>
       <c r="H186" s="1">
-        <v>45854.469155092593</v>
+        <v>45863.523310185185</v>
       </c>
       <c r="I186" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J186" s="3">
-        <v>512.1</v>
+        <v>280.94</v>
       </c>
       <c r="K186" s="3">
-        <v>512.1</v>
+        <v>280.94</v>
       </c>
       <c r="L186" t="s">
         <v>15</v>
@@ -8288,25 +8285,25 @@
         <v>17</v>
       </c>
       <c r="E187">
-        <v>10763</v>
+        <v>11099</v>
       </c>
       <c r="F187" t="s">
         <v>14</v>
       </c>
       <c r="G187" s="1">
-        <v>45886.485254629624</v>
+        <v>45896.526018518518</v>
       </c>
       <c r="H187" s="1">
-        <v>45856.485266203701</v>
+        <v>45866.526030092587</v>
       </c>
       <c r="I187" s="2">
         <v>68</v>
       </c>
       <c r="J187" s="3">
-        <v>397.42</v>
+        <v>697.21</v>
       </c>
       <c r="K187" s="3">
-        <v>397.42</v>
+        <v>697.21</v>
       </c>
       <c r="L187" t="s">
         <v>15</v>
@@ -8329,25 +8326,25 @@
         <v>17</v>
       </c>
       <c r="E188">
-        <v>10816</v>
+        <v>11362</v>
       </c>
       <c r="F188" t="s">
         <v>14</v>
       </c>
       <c r="G188" s="1">
-        <v>45889.487604166665</v>
+        <v>45900.570057870369</v>
       </c>
       <c r="H188" s="1">
-        <v>45859.487604166665</v>
+        <v>45870.570069444446</v>
       </c>
       <c r="I188" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J188" s="3">
-        <v>531.94000000000005</v>
+        <v>605.70000000000005</v>
       </c>
       <c r="K188" s="3">
-        <v>531.94000000000005</v>
+        <v>605.70000000000005</v>
       </c>
       <c r="L188" t="s">
         <v>15</v>
@@ -8370,31 +8367,31 @@
         <v>17</v>
       </c>
       <c r="E189">
-        <v>11063</v>
+        <v>11539</v>
       </c>
       <c r="F189" t="s">
         <v>14</v>
       </c>
       <c r="G189" s="1">
-        <v>45893.523298611108</v>
+        <v>45905.539606481478</v>
       </c>
       <c r="H189" s="1">
-        <v>45863.523310185185</v>
+        <v>45875.539606481478</v>
       </c>
       <c r="I189" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J189" s="3">
-        <v>280.94</v>
+        <v>381.79</v>
       </c>
       <c r="K189" s="3">
-        <v>280.94</v>
+        <v>381.79</v>
       </c>
       <c r="L189" t="s">
         <v>15</v>
       </c>
       <c r="M189" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
@@ -8411,25 +8408,25 @@
         <v>17</v>
       </c>
       <c r="E190">
-        <v>11099</v>
+        <v>11640</v>
       </c>
       <c r="F190" t="s">
         <v>14</v>
       </c>
       <c r="G190" s="1">
-        <v>45896.526018518518</v>
+        <v>45907.581331018519</v>
       </c>
       <c r="H190" s="1">
-        <v>45866.526030092587</v>
+        <v>45877.581331018519</v>
       </c>
       <c r="I190" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J190" s="3">
-        <v>697.21</v>
+        <v>732.66</v>
       </c>
       <c r="K190" s="3">
-        <v>697.21</v>
+        <v>732.66</v>
       </c>
       <c r="L190" t="s">
         <v>15</v>
@@ -8452,25 +8449,25 @@
         <v>17</v>
       </c>
       <c r="E191">
-        <v>11362</v>
+        <v>11704</v>
       </c>
       <c r="F191" t="s">
         <v>14</v>
       </c>
       <c r="G191" s="1">
-        <v>45900.570057870369</v>
+        <v>45910.500115740739</v>
       </c>
       <c r="H191" s="1">
-        <v>45870.570069444446</v>
+        <v>45880.500127314815</v>
       </c>
       <c r="I191" s="2">
         <v>54</v>
       </c>
       <c r="J191" s="3">
-        <v>605.70000000000005</v>
+        <v>495.78000000000003</v>
       </c>
       <c r="K191" s="3">
-        <v>605.70000000000005</v>
+        <v>495.78000000000003</v>
       </c>
       <c r="L191" t="s">
         <v>15</v>
@@ -8493,25 +8490,25 @@
         <v>17</v>
       </c>
       <c r="E192">
-        <v>11539</v>
+        <v>11836</v>
       </c>
       <c r="F192" t="s">
         <v>14</v>
       </c>
       <c r="G192" s="1">
-        <v>45905.539606481478</v>
+        <v>45912.519224537034</v>
       </c>
       <c r="H192" s="1">
-        <v>45875.539606481478</v>
+        <v>45882.519236111111</v>
       </c>
       <c r="I192" s="2">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J192" s="3">
-        <v>381.79</v>
+        <v>560.07000000000005</v>
       </c>
       <c r="K192" s="3">
-        <v>381.79</v>
+        <v>560.07000000000005</v>
       </c>
       <c r="L192" t="s">
         <v>15</v>
@@ -8534,25 +8531,25 @@
         <v>17</v>
       </c>
       <c r="E193">
-        <v>11640</v>
+        <v>11978</v>
       </c>
       <c r="F193" t="s">
         <v>14</v>
       </c>
       <c r="G193" s="1">
-        <v>45907.581331018519</v>
+        <v>45917.605277777773</v>
       </c>
       <c r="H193" s="1">
-        <v>45877.581331018519</v>
+        <v>45887.607997685183</v>
       </c>
       <c r="I193" s="2">
         <v>47</v>
       </c>
       <c r="J193" s="3">
-        <v>732.66</v>
+        <v>297.75</v>
       </c>
       <c r="K193" s="3">
-        <v>732.66</v>
+        <v>297.75</v>
       </c>
       <c r="L193" t="s">
         <v>15</v>
@@ -8575,25 +8572,25 @@
         <v>17</v>
       </c>
       <c r="E194">
-        <v>11704</v>
+        <v>12085</v>
       </c>
       <c r="F194" t="s">
         <v>14</v>
       </c>
       <c r="G194" s="1">
-        <v>45910.500115740739</v>
+        <v>45919.598935185182</v>
       </c>
       <c r="H194" s="1">
-        <v>45880.500127314815</v>
+        <v>45889.598946759259</v>
       </c>
       <c r="I194" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J194" s="3">
-        <v>495.78000000000003</v>
+        <v>590.31000000000006</v>
       </c>
       <c r="K194" s="3">
-        <v>495.78000000000003</v>
+        <v>590.31000000000006</v>
       </c>
       <c r="L194" t="s">
         <v>15</v>
@@ -8616,25 +8613,25 @@
         <v>17</v>
       </c>
       <c r="E195">
-        <v>11836</v>
+        <v>12199</v>
       </c>
       <c r="F195" t="s">
         <v>14</v>
       </c>
       <c r="G195" s="1">
-        <v>45912.519224537034</v>
+        <v>45921.44903935185</v>
       </c>
       <c r="H195" s="1">
-        <v>45882.519236111111</v>
+        <v>45891.44903935185</v>
       </c>
       <c r="I195" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J195" s="3">
-        <v>560.07000000000005</v>
+        <v>72.84</v>
       </c>
       <c r="K195" s="3">
-        <v>560.07000000000005</v>
+        <v>72.84</v>
       </c>
       <c r="L195" t="s">
         <v>15</v>
@@ -8657,25 +8654,25 @@
         <v>17</v>
       </c>
       <c r="E196">
-        <v>11978</v>
+        <v>12331</v>
       </c>
       <c r="F196" t="s">
         <v>14</v>
       </c>
       <c r="G196" s="1">
-        <v>45917.605277777773</v>
+        <v>45926.416307870371</v>
       </c>
       <c r="H196" s="1">
-        <v>45887.607997685183</v>
+        <v>45896.416307870371</v>
       </c>
       <c r="I196" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J196" s="3">
-        <v>297.75</v>
+        <v>175.13</v>
       </c>
       <c r="K196" s="3">
-        <v>297.75</v>
+        <v>175.13</v>
       </c>
       <c r="L196" t="s">
         <v>15</v>
@@ -8698,25 +8695,25 @@
         <v>17</v>
       </c>
       <c r="E197">
-        <v>12085</v>
+        <v>12542</v>
       </c>
       <c r="F197" t="s">
         <v>14</v>
       </c>
       <c r="G197" s="1">
-        <v>45919.598935185182</v>
+        <v>45933.420671296291</v>
       </c>
       <c r="H197" s="1">
-        <v>45889.598946759259</v>
+        <v>45903.420682870368</v>
       </c>
       <c r="I197" s="2">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J197" s="3">
-        <v>590.31000000000006</v>
+        <v>166.81</v>
       </c>
       <c r="K197" s="3">
-        <v>590.31000000000006</v>
+        <v>166.81</v>
       </c>
       <c r="L197" t="s">
         <v>15</v>
@@ -8727,10 +8724,10 @@
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>211112147</v>
+        <v>211112165</v>
       </c>
       <c r="B198" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="C198" t="s">
         <v>16</v>
@@ -8739,39 +8736,39 @@
         <v>17</v>
       </c>
       <c r="E198">
-        <v>12199</v>
+        <v>14334</v>
       </c>
       <c r="F198" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G198" s="1">
-        <v>45921.44903935185</v>
+        <v>45969.373194444444</v>
       </c>
       <c r="H198" s="1">
-        <v>45891.44903935185</v>
+        <v>45954.373912037037</v>
       </c>
       <c r="I198" s="2">
-        <v>33</v>
+        <v>-5</v>
       </c>
       <c r="J198" s="3">
-        <v>72.84</v>
+        <v>95.990000000000009</v>
       </c>
       <c r="K198" s="3">
-        <v>72.84</v>
+        <v>95.990000000000009</v>
       </c>
       <c r="L198" t="s">
         <v>15</v>
       </c>
       <c r="M198" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>211112147</v>
+        <v>211112176</v>
       </c>
       <c r="B199" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C199" t="s">
         <v>16</v>
@@ -8780,39 +8777,39 @@
         <v>17</v>
       </c>
       <c r="E199">
-        <v>12331</v>
+        <v>13665</v>
       </c>
       <c r="F199" t="s">
         <v>14</v>
       </c>
       <c r="G199" s="1">
-        <v>45926.416307870371</v>
+        <v>45966.364212962959</v>
       </c>
       <c r="H199" s="1">
-        <v>45896.416307870371</v>
+        <v>45936.364768518513</v>
       </c>
       <c r="I199" s="2">
-        <v>28</v>
+        <v>-2</v>
       </c>
       <c r="J199" s="3">
-        <v>175.13</v>
+        <v>86.31</v>
       </c>
       <c r="K199" s="3">
-        <v>175.13</v>
+        <v>86.31</v>
       </c>
       <c r="L199" t="s">
         <v>15</v>
       </c>
       <c r="M199" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>211112147</v>
+        <v>211112176</v>
       </c>
       <c r="B200" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C200" t="s">
         <v>16</v>
@@ -8821,39 +8818,39 @@
         <v>17</v>
       </c>
       <c r="E200">
-        <v>12542</v>
+        <v>13683</v>
       </c>
       <c r="F200" t="s">
         <v>14</v>
       </c>
       <c r="G200" s="1">
-        <v>45933.420671296291</v>
+        <v>45966.419421296298</v>
       </c>
       <c r="H200" s="1">
-        <v>45903.420682870368</v>
+        <v>45936.419930555552</v>
       </c>
       <c r="I200" s="2">
-        <v>21</v>
+        <v>-2</v>
       </c>
       <c r="J200" s="3">
-        <v>166.81</v>
+        <v>25.14</v>
       </c>
       <c r="K200" s="3">
-        <v>166.81</v>
+        <v>25.14</v>
       </c>
       <c r="L200" t="s">
         <v>15</v>
       </c>
       <c r="M200" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>211112165</v>
+        <v>211112176</v>
       </c>
       <c r="B201" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C201" t="s">
         <v>16</v>
@@ -8862,25 +8859,25 @@
         <v>17</v>
       </c>
       <c r="E201">
-        <v>13963</v>
+        <v>13896</v>
       </c>
       <c r="F201" t="s">
         <v>14</v>
       </c>
       <c r="G201" s="1">
-        <v>45959.369039351848</v>
+        <v>45970.415173611109</v>
       </c>
       <c r="H201" s="1">
-        <v>45944.369687499995</v>
+        <v>45940.416365740741</v>
       </c>
       <c r="I201" s="2">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="J201" s="3">
-        <v>99.33</v>
+        <v>45.39</v>
       </c>
       <c r="K201" s="3">
-        <v>99.33</v>
+        <v>45.39</v>
       </c>
       <c r="L201" t="s">
         <v>15</v>
@@ -8891,10 +8888,10 @@
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>211112165</v>
+        <v>211112176</v>
       </c>
       <c r="B202" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C202" t="s">
         <v>16</v>
@@ -8903,25 +8900,25 @@
         <v>17</v>
       </c>
       <c r="E202">
-        <v>14334</v>
+        <v>14079</v>
       </c>
       <c r="F202" t="s">
         <v>14</v>
       </c>
       <c r="G202" s="1">
-        <v>45969.373194444444</v>
+        <v>45977.281053240738</v>
       </c>
       <c r="H202" s="1">
-        <v>45954.373912037037</v>
+        <v>45947.281678240739</v>
       </c>
       <c r="I202" s="2">
-        <v>-15</v>
+        <v>-13</v>
       </c>
       <c r="J202" s="3">
-        <v>95.990000000000009</v>
+        <v>55.89</v>
       </c>
       <c r="K202" s="3">
-        <v>95.990000000000009</v>
+        <v>55.89</v>
       </c>
       <c r="L202" t="s">
         <v>15</v>
@@ -8935,7 +8932,7 @@
         <v>211112176</v>
       </c>
       <c r="B203" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C203" t="s">
         <v>16</v>
@@ -8944,25 +8941,25 @@
         <v>17</v>
       </c>
       <c r="E203">
-        <v>13665</v>
+        <v>14322</v>
       </c>
       <c r="F203" t="s">
         <v>14</v>
       </c>
       <c r="G203" s="1">
-        <v>45966.364212962959</v>
+        <v>45984.358807870369</v>
       </c>
       <c r="H203" s="1">
-        <v>45936.364768518513</v>
+        <v>45954.35900462963</v>
       </c>
       <c r="I203" s="2">
-        <v>-12</v>
+        <v>-20</v>
       </c>
       <c r="J203" s="3">
-        <v>86.31</v>
+        <v>73.42</v>
       </c>
       <c r="K203" s="3">
-        <v>86.31</v>
+        <v>73.42</v>
       </c>
       <c r="L203" t="s">
         <v>15</v>
@@ -8976,7 +8973,7 @@
         <v>211112176</v>
       </c>
       <c r="B204" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C204" t="s">
         <v>16</v>
@@ -8985,25 +8982,25 @@
         <v>17</v>
       </c>
       <c r="E204">
-        <v>13683</v>
+        <v>14347</v>
       </c>
       <c r="F204" t="s">
         <v>14</v>
       </c>
       <c r="G204" s="1">
-        <v>45966.419421296298</v>
+        <v>45987.374849537038</v>
       </c>
       <c r="H204" s="1">
-        <v>45936.419930555552</v>
+        <v>45957.375671296293</v>
       </c>
       <c r="I204" s="2">
-        <v>-12</v>
+        <v>-23</v>
       </c>
       <c r="J204" s="3">
-        <v>25.14</v>
+        <v>117.01</v>
       </c>
       <c r="K204" s="3">
-        <v>25.14</v>
+        <v>117.01</v>
       </c>
       <c r="L204" t="s">
         <v>15</v>
@@ -9017,34 +9014,34 @@
         <v>211112176</v>
       </c>
       <c r="B205" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C205" t="s">
-        <v>16</v>
-      </c>
-      <c r="D205" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="D205">
+        <v>2025</v>
       </c>
       <c r="E205">
-        <v>13896</v>
+        <v>974</v>
       </c>
       <c r="F205" t="s">
         <v>14</v>
       </c>
       <c r="G205" s="1">
-        <v>45970.415173611109</v>
+        <v>45988</v>
       </c>
       <c r="H205" s="1">
-        <v>45940.416365740741</v>
+        <v>45958</v>
       </c>
       <c r="I205" s="2">
-        <v>-16</v>
+        <v>-24</v>
       </c>
       <c r="J205" s="3">
-        <v>45.39</v>
+        <v>-37.01</v>
       </c>
       <c r="K205" s="3">
-        <v>45.39</v>
+        <v>-37.01</v>
       </c>
       <c r="L205" t="s">
         <v>15</v>
@@ -9058,7 +9055,7 @@
         <v>211112176</v>
       </c>
       <c r="B206" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C206" t="s">
         <v>16</v>
@@ -9067,25 +9064,25 @@
         <v>17</v>
       </c>
       <c r="E206">
-        <v>14079</v>
+        <v>14542</v>
       </c>
       <c r="F206" t="s">
         <v>14</v>
       </c>
       <c r="G206" s="1">
-        <v>45977.281053240738</v>
+        <v>45991.386759259258</v>
       </c>
       <c r="H206" s="1">
-        <v>45947.281678240739</v>
+        <v>45961.387476851851</v>
       </c>
       <c r="I206" s="2">
-        <v>-23</v>
+        <v>-27</v>
       </c>
       <c r="J206" s="3">
-        <v>55.89</v>
+        <v>62.870000000000005</v>
       </c>
       <c r="K206" s="3">
-        <v>55.89</v>
+        <v>62.870000000000005</v>
       </c>
       <c r="L206" t="s">
         <v>15</v>
@@ -9096,10 +9093,10 @@
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>211112176</v>
+        <v>211112252</v>
       </c>
       <c r="B207" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C207" t="s">
         <v>16</v>
@@ -9108,25 +9105,25 @@
         <v>17</v>
       </c>
       <c r="E207">
-        <v>14322</v>
+        <v>14310</v>
       </c>
       <c r="F207" t="s">
         <v>14</v>
       </c>
       <c r="G207" s="1">
-        <v>45984.358807870369</v>
+        <v>45984.349120370367</v>
       </c>
       <c r="H207" s="1">
-        <v>45954.35900462963</v>
+        <v>45954.349583333329</v>
       </c>
       <c r="I207" s="2">
-        <v>-30</v>
+        <v>-20</v>
       </c>
       <c r="J207" s="3">
-        <v>73.42</v>
+        <v>47.24</v>
       </c>
       <c r="K207" s="3">
-        <v>73.42</v>
+        <v>47.24</v>
       </c>
       <c r="L207" t="s">
         <v>15</v>
@@ -9137,92 +9134,92 @@
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>211112201</v>
+        <v>211112329</v>
       </c>
       <c r="B208" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C208" t="s">
-        <v>13</v>
-      </c>
-      <c r="D208">
-        <v>2025</v>
+        <v>16</v>
+      </c>
+      <c r="D208" t="s">
+        <v>17</v>
       </c>
       <c r="E208">
-        <v>916</v>
+        <v>14023</v>
       </c>
       <c r="F208" t="s">
         <v>14</v>
       </c>
       <c r="G208" s="1">
-        <v>45938</v>
+        <v>45975.386215277773</v>
       </c>
       <c r="H208" s="1">
-        <v>45938</v>
+        <v>45945.386574074073</v>
       </c>
       <c r="I208" s="2">
-        <v>16</v>
+        <v>-11</v>
       </c>
       <c r="J208" s="3">
-        <v>-13.94</v>
+        <v>494.66</v>
       </c>
       <c r="K208" s="3">
-        <v>-13.94</v>
+        <v>494.66</v>
       </c>
       <c r="L208" t="s">
         <v>15</v>
       </c>
       <c r="M208" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>211112252</v>
+        <v>211112375</v>
       </c>
       <c r="B209" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="C209" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D209" t="s">
         <v>17</v>
       </c>
       <c r="E209">
-        <v>14310</v>
+        <v>430</v>
       </c>
       <c r="F209" t="s">
         <v>14</v>
       </c>
       <c r="G209" s="1">
-        <v>45984.349120370367</v>
+        <v>45816</v>
       </c>
       <c r="H209" s="1">
-        <v>45954.349583333329</v>
+        <v>45786</v>
       </c>
       <c r="I209" s="2">
-        <v>-30</v>
+        <v>148</v>
       </c>
       <c r="J209" s="3">
-        <v>47.24</v>
+        <v>-86.42</v>
       </c>
       <c r="K209" s="3">
-        <v>47.24</v>
+        <v>-86.42</v>
       </c>
       <c r="L209" t="s">
         <v>15</v>
       </c>
       <c r="M209" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>211112329</v>
+        <v>211112377</v>
       </c>
       <c r="B210" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C210" t="s">
         <v>16</v>
@@ -9231,25 +9228,25 @@
         <v>17</v>
       </c>
       <c r="E210">
-        <v>14023</v>
+        <v>14025</v>
       </c>
       <c r="F210" t="s">
         <v>14</v>
       </c>
       <c r="G210" s="1">
-        <v>45975.386215277773</v>
+        <v>45966.393553240741</v>
       </c>
       <c r="H210" s="1">
-        <v>45945.386574074073</v>
+        <v>45945.394965277774</v>
       </c>
       <c r="I210" s="2">
-        <v>-21</v>
+        <v>-2</v>
       </c>
       <c r="J210" s="3">
-        <v>494.66</v>
+        <v>88.42</v>
       </c>
       <c r="K210" s="3">
-        <v>494.66</v>
+        <v>88.42</v>
       </c>
       <c r="L210" t="s">
         <v>15</v>
@@ -9260,51 +9257,51 @@
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>211112375</v>
+        <v>211112400</v>
       </c>
       <c r="B211" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="C211" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D211" t="s">
         <v>17</v>
       </c>
       <c r="E211">
-        <v>430</v>
+        <v>13881</v>
       </c>
       <c r="F211" t="s">
         <v>14</v>
       </c>
       <c r="G211" s="1">
-        <v>45816</v>
+        <v>45970.373865740738</v>
       </c>
       <c r="H211" s="1">
-        <v>45786</v>
+        <v>45940.374247685184</v>
       </c>
       <c r="I211" s="2">
-        <v>138</v>
+        <v>-6</v>
       </c>
       <c r="J211" s="3">
-        <v>-86.42</v>
+        <v>30.12</v>
       </c>
       <c r="K211" s="3">
-        <v>-86.42</v>
+        <v>30.12</v>
       </c>
       <c r="L211" t="s">
         <v>15</v>
       </c>
       <c r="M211" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>211112377</v>
+        <v>211112400</v>
       </c>
       <c r="B212" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C212" t="s">
         <v>16</v>
@@ -9313,25 +9310,25 @@
         <v>17</v>
       </c>
       <c r="E212">
-        <v>14025</v>
+        <v>14387</v>
       </c>
       <c r="F212" t="s">
         <v>14</v>
       </c>
       <c r="G212" s="1">
-        <v>45966.393553240741</v>
+        <v>45988.356527777774</v>
       </c>
       <c r="H212" s="1">
-        <v>45945.394965277774</v>
+        <v>45958.356770833328</v>
       </c>
       <c r="I212" s="2">
-        <v>-12</v>
+        <v>-24</v>
       </c>
       <c r="J212" s="3">
-        <v>88.42</v>
+        <v>30.150000000000002</v>
       </c>
       <c r="K212" s="3">
-        <v>88.42</v>
+        <v>30.150000000000002</v>
       </c>
       <c r="L212" t="s">
         <v>15</v>
@@ -9345,7 +9342,7 @@
         <v>211112400</v>
       </c>
       <c r="B213" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C213" t="s">
         <v>16</v>
@@ -9354,25 +9351,25 @@
         <v>17</v>
       </c>
       <c r="E213">
-        <v>13881</v>
+        <v>14533</v>
       </c>
       <c r="F213" t="s">
         <v>14</v>
       </c>
       <c r="G213" s="1">
-        <v>45970.373865740738</v>
+        <v>45991.370509259257</v>
       </c>
       <c r="H213" s="1">
-        <v>45940.374247685184</v>
+        <v>45961.370879629627</v>
       </c>
       <c r="I213" s="2">
-        <v>-16</v>
+        <v>-27</v>
       </c>
       <c r="J213" s="3">
-        <v>30.12</v>
+        <v>33.64</v>
       </c>
       <c r="K213" s="3">
-        <v>30.12</v>
+        <v>33.64</v>
       </c>
       <c r="L213" t="s">
         <v>15</v>
@@ -9386,7 +9383,7 @@
         <v>211112415</v>
       </c>
       <c r="B214" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C214" t="s">
         <v>16</v>
@@ -9395,31 +9392,31 @@
         <v>17</v>
       </c>
       <c r="E214">
-        <v>12204</v>
+        <v>12883</v>
       </c>
       <c r="F214" t="s">
         <v>14</v>
       </c>
       <c r="G214" s="1">
-        <v>45921.449178240742</v>
+        <v>45942.351180555554</v>
       </c>
       <c r="H214" s="1">
-        <v>45891.449178240742</v>
+        <v>45912.351180555554</v>
       </c>
       <c r="I214" s="2">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="J214" s="3">
-        <v>61.940000000000005</v>
+        <v>112.89</v>
       </c>
       <c r="K214" s="3">
-        <v>61.940000000000005</v>
+        <v>112.89</v>
       </c>
       <c r="L214" t="s">
         <v>15</v>
       </c>
       <c r="M214" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
@@ -9427,40 +9424,40 @@
         <v>211112415</v>
       </c>
       <c r="B215" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C215" t="s">
-        <v>13</v>
-      </c>
-      <c r="D215">
-        <v>2025</v>
+        <v>16</v>
+      </c>
+      <c r="D215" t="s">
+        <v>17</v>
       </c>
       <c r="E215">
-        <v>785</v>
+        <v>12936</v>
       </c>
       <c r="F215" t="s">
         <v>14</v>
       </c>
       <c r="G215" s="1">
-        <v>45922</v>
+        <v>45945.403437499997</v>
       </c>
       <c r="H215" s="1">
-        <v>45892</v>
+        <v>45915.403437499997</v>
       </c>
       <c r="I215" s="2">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J215" s="3">
-        <v>-13.91</v>
+        <v>111.07000000000001</v>
       </c>
       <c r="K215" s="3">
-        <v>-13.91</v>
+        <v>111.07000000000001</v>
       </c>
       <c r="L215" t="s">
         <v>15</v>
       </c>
       <c r="M215" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
@@ -9468,7 +9465,7 @@
         <v>211112415</v>
       </c>
       <c r="B216" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C216" t="s">
         <v>16</v>
@@ -9477,31 +9474,31 @@
         <v>17</v>
       </c>
       <c r="E216">
-        <v>12336</v>
+        <v>13209</v>
       </c>
       <c r="F216" t="s">
         <v>14</v>
       </c>
       <c r="G216" s="1">
-        <v>45926.416435185187</v>
+        <v>45952.360300925924</v>
       </c>
       <c r="H216" s="1">
-        <v>45896.416435185187</v>
+        <v>45922.361458333333</v>
       </c>
       <c r="I216" s="2">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="J216" s="3">
-        <v>78.34</v>
+        <v>43.21</v>
       </c>
       <c r="K216" s="3">
-        <v>78.34</v>
+        <v>43.21</v>
       </c>
       <c r="L216" t="s">
         <v>15</v>
       </c>
       <c r="M216" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
@@ -9509,40 +9506,40 @@
         <v>211112415</v>
       </c>
       <c r="B217" t="s">
+        <v>56</v>
+      </c>
+      <c r="C217" t="s">
+        <v>16</v>
+      </c>
+      <c r="D217" t="s">
+        <v>17</v>
+      </c>
+      <c r="E217">
+        <v>13640</v>
+      </c>
+      <c r="F217" t="s">
+        <v>14</v>
+      </c>
+      <c r="G217" s="1">
+        <v>45963.363425925927</v>
+      </c>
+      <c r="H217" s="1">
+        <v>45933.393148148149</v>
+      </c>
+      <c r="I217" s="2">
+        <v>1</v>
+      </c>
+      <c r="J217" s="3">
+        <v>91.7</v>
+      </c>
+      <c r="K217" s="3">
+        <v>91.7</v>
+      </c>
+      <c r="L217" t="s">
+        <v>15</v>
+      </c>
+      <c r="M217" t="s">
         <v>58</v>
-      </c>
-      <c r="C217" t="s">
-        <v>16</v>
-      </c>
-      <c r="D217" t="s">
-        <v>17</v>
-      </c>
-      <c r="E217">
-        <v>12883</v>
-      </c>
-      <c r="F217" t="s">
-        <v>14</v>
-      </c>
-      <c r="G217" s="1">
-        <v>45942.351180555554</v>
-      </c>
-      <c r="H217" s="1">
-        <v>45912.351180555554</v>
-      </c>
-      <c r="I217" s="2">
-        <v>12</v>
-      </c>
-      <c r="J217" s="3">
-        <v>112.89</v>
-      </c>
-      <c r="K217" s="3">
-        <v>112.89</v>
-      </c>
-      <c r="L217" t="s">
-        <v>15</v>
-      </c>
-      <c r="M217" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
@@ -9550,7 +9547,7 @@
         <v>211112415</v>
       </c>
       <c r="B218" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C218" t="s">
         <v>16</v>
@@ -9559,31 +9556,31 @@
         <v>17</v>
       </c>
       <c r="E218">
-        <v>12936</v>
+        <v>14361</v>
       </c>
       <c r="F218" t="s">
         <v>14</v>
       </c>
       <c r="G218" s="1">
-        <v>45945.403437499997</v>
+        <v>45987.405231481476</v>
       </c>
       <c r="H218" s="1">
-        <v>45915.403437499997</v>
+        <v>45957.4140625</v>
       </c>
       <c r="I218" s="2">
-        <v>9</v>
+        <v>-23</v>
       </c>
       <c r="J218" s="3">
-        <v>111.07000000000001</v>
+        <v>80.27</v>
       </c>
       <c r="K218" s="3">
-        <v>111.07000000000001</v>
+        <v>80.27</v>
       </c>
       <c r="L218" t="s">
         <v>15</v>
       </c>
       <c r="M218" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
@@ -9591,48 +9588,48 @@
         <v>211112415</v>
       </c>
       <c r="B219" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C219" t="s">
-        <v>16</v>
-      </c>
-      <c r="D219" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="D219">
+        <v>2025</v>
       </c>
       <c r="E219">
-        <v>13209</v>
+        <v>967</v>
       </c>
       <c r="F219" t="s">
         <v>14</v>
       </c>
       <c r="G219" s="1">
-        <v>45952.360300925924</v>
+        <v>45988</v>
       </c>
       <c r="H219" s="1">
-        <v>45922.361458333333</v>
+        <v>45958</v>
       </c>
       <c r="I219" s="2">
-        <v>2</v>
+        <v>-24</v>
       </c>
       <c r="J219" s="3">
-        <v>43.21</v>
+        <v>-47.22</v>
       </c>
       <c r="K219" s="3">
-        <v>43.21</v>
+        <v>-47.22</v>
       </c>
       <c r="L219" t="s">
         <v>15</v>
       </c>
       <c r="M219" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>211112415</v>
+        <v>211112481</v>
       </c>
       <c r="B220" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C220" t="s">
         <v>16</v>
@@ -9641,25 +9638,25 @@
         <v>17</v>
       </c>
       <c r="E220">
-        <v>13640</v>
+        <v>14540</v>
       </c>
       <c r="F220" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G220" s="1">
-        <v>45963.363425925927</v>
+        <v>45991.379687499997</v>
       </c>
       <c r="H220" s="1">
-        <v>45933.393148148149</v>
+        <v>45961.385462962964</v>
       </c>
       <c r="I220" s="2">
-        <v>-9</v>
+        <v>-27</v>
       </c>
       <c r="J220" s="3">
-        <v>91.7</v>
+        <v>73.12</v>
       </c>
       <c r="K220" s="3">
-        <v>91.7</v>
+        <v>73.12</v>
       </c>
       <c r="L220" t="s">
         <v>15</v>
@@ -9670,10 +9667,10 @@
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>211112481</v>
+        <v>211112538</v>
       </c>
       <c r="B221" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C221" t="s">
         <v>16</v>
@@ -9682,25 +9679,25 @@
         <v>17</v>
       </c>
       <c r="E221">
-        <v>14167</v>
+        <v>14226</v>
       </c>
       <c r="F221" t="s">
         <v>14</v>
       </c>
       <c r="G221" s="1">
-        <v>45981.350416666668</v>
+        <v>45973.367291666662</v>
       </c>
       <c r="H221" s="1">
-        <v>45951.350659722222</v>
+        <v>45952.367858796293</v>
       </c>
       <c r="I221" s="2">
-        <v>-27</v>
+        <v>-9</v>
       </c>
       <c r="J221" s="3">
-        <v>78.239999999999995</v>
+        <v>75.45</v>
       </c>
       <c r="K221" s="3">
-        <v>78.239999999999995</v>
+        <v>75.45</v>
       </c>
       <c r="L221" t="s">
         <v>15</v>
@@ -9711,37 +9708,37 @@
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>211112537</v>
+        <v>211112538</v>
       </c>
       <c r="B222" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C222" t="s">
         <v>13</v>
       </c>
-      <c r="D222" t="s">
-        <v>17</v>
+      <c r="D222">
+        <v>2025</v>
       </c>
       <c r="E222">
-        <v>608</v>
+        <v>966</v>
       </c>
       <c r="F222" t="s">
         <v>14</v>
       </c>
       <c r="G222" s="1">
-        <v>45974</v>
+        <v>45979</v>
       </c>
       <c r="H222" s="1">
-        <v>45944</v>
+        <v>45958</v>
       </c>
       <c r="I222" s="2">
-        <v>-20</v>
+        <v>-15</v>
       </c>
       <c r="J222" s="3">
-        <v>-7.63</v>
+        <v>-13.83</v>
       </c>
       <c r="K222" s="3">
-        <v>-7.63</v>
+        <v>-13.83</v>
       </c>
       <c r="L222" t="s">
         <v>15</v>
@@ -9752,10 +9749,10 @@
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>211112537</v>
+        <v>211112538</v>
       </c>
       <c r="B223" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C223" t="s">
         <v>16</v>
@@ -9764,25 +9761,25 @@
         <v>17</v>
       </c>
       <c r="E223">
-        <v>14166</v>
+        <v>14464</v>
       </c>
       <c r="F223" t="s">
         <v>14</v>
       </c>
       <c r="G223" s="1">
-        <v>45981.349340277775</v>
+        <v>45980.426620370366</v>
       </c>
       <c r="H223" s="1">
-        <v>45951.350185185183</v>
+        <v>45959.427048611113</v>
       </c>
       <c r="I223" s="2">
-        <v>-27</v>
+        <v>-16</v>
       </c>
       <c r="J223" s="3">
-        <v>29.88</v>
+        <v>25.38</v>
       </c>
       <c r="K223" s="3">
-        <v>29.88</v>
+        <v>25.38</v>
       </c>
       <c r="L223" t="s">
         <v>15</v>
@@ -9796,7 +9793,7 @@
         <v>211112538</v>
       </c>
       <c r="B224" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C224" t="s">
         <v>16</v>
@@ -9805,31 +9802,31 @@
         <v>17</v>
       </c>
       <c r="E224">
-        <v>13553</v>
+        <v>14468</v>
       </c>
       <c r="F224" t="s">
         <v>14</v>
       </c>
       <c r="G224" s="1">
-        <v>45952.408749999995</v>
+        <v>45980.439398148148</v>
       </c>
       <c r="H224" s="1">
-        <v>45931.409178240741</v>
+        <v>45959.442731481482</v>
       </c>
       <c r="I224" s="2">
-        <v>2</v>
+        <v>-16</v>
       </c>
       <c r="J224" s="3">
-        <v>18.7</v>
+        <v>5.33</v>
       </c>
       <c r="K224" s="3">
-        <v>18.7</v>
+        <v>5.33</v>
       </c>
       <c r="L224" t="s">
         <v>15</v>
       </c>
       <c r="M224" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
@@ -9837,7 +9834,7 @@
         <v>211112538</v>
       </c>
       <c r="B225" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C225" t="s">
         <v>16</v>
@@ -9846,25 +9843,25 @@
         <v>17</v>
       </c>
       <c r="E225">
-        <v>14226</v>
+        <v>14511</v>
       </c>
       <c r="F225" t="s">
         <v>14</v>
       </c>
       <c r="G225" s="1">
-        <v>45973.367291666662</v>
+        <v>45981.408379629625</v>
       </c>
       <c r="H225" s="1">
-        <v>45952.367858796293</v>
+        <v>45960.408831018518</v>
       </c>
       <c r="I225" s="2">
-        <v>-19</v>
+        <v>-17</v>
       </c>
       <c r="J225" s="3">
-        <v>75.45</v>
+        <v>27.330000000000002</v>
       </c>
       <c r="K225" s="3">
-        <v>75.45</v>
+        <v>27.330000000000002</v>
       </c>
       <c r="L225" t="s">
         <v>15</v>
